--- a/Additive Ruin Data.xlsx
+++ b/Additive Ruin Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnev\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542FD99C-010D-4AF6-B41F-72D758651251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210814A9-6F7A-410C-B2E2-8A6928B1E7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{454A879A-1C30-4F99-8571-4B0BB01F3B60}"/>
   </bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03810B1-57D3-4A6A-B889-2450C6AB220A}">
   <dimension ref="A1:AN384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL210" sqref="AL210:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -23326,6 +23326,27 @@
       <c r="AF198">
         <v>2</v>
       </c>
+      <c r="AG198">
+        <v>2</v>
+      </c>
+      <c r="AH198">
+        <v>1</v>
+      </c>
+      <c r="AI198">
+        <v>1</v>
+      </c>
+      <c r="AJ198">
+        <v>1</v>
+      </c>
+      <c r="AK198">
+        <v>1</v>
+      </c>
+      <c r="AM198">
+        <v>-1380</v>
+      </c>
+      <c r="AN198">
+        <v>1000</v>
+      </c>
     </row>
     <row r="199" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A199">
@@ -23421,6 +23442,27 @@
       <c r="AF199">
         <v>2</v>
       </c>
+      <c r="AG199">
+        <v>1</v>
+      </c>
+      <c r="AH199">
+        <v>1</v>
+      </c>
+      <c r="AI199">
+        <v>1</v>
+      </c>
+      <c r="AJ199">
+        <v>1</v>
+      </c>
+      <c r="AK199">
+        <v>1</v>
+      </c>
+      <c r="AM199">
+        <v>-40</v>
+      </c>
+      <c r="AN199">
+        <v>1000</v>
+      </c>
     </row>
     <row r="200" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A200">
@@ -23516,6 +23558,27 @@
       <c r="AF200">
         <v>2</v>
       </c>
+      <c r="AG200">
+        <v>1</v>
+      </c>
+      <c r="AH200">
+        <v>1</v>
+      </c>
+      <c r="AI200">
+        <v>1</v>
+      </c>
+      <c r="AJ200">
+        <v>1</v>
+      </c>
+      <c r="AK200">
+        <v>1</v>
+      </c>
+      <c r="AM200">
+        <v>-40</v>
+      </c>
+      <c r="AN200">
+        <v>1000</v>
+      </c>
     </row>
     <row r="201" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A201">
@@ -23611,6 +23674,27 @@
       <c r="AF201">
         <v>1</v>
       </c>
+      <c r="AG201">
+        <v>2</v>
+      </c>
+      <c r="AH201">
+        <v>1</v>
+      </c>
+      <c r="AI201">
+        <v>1</v>
+      </c>
+      <c r="AJ201">
+        <v>2</v>
+      </c>
+      <c r="AK201">
+        <v>1</v>
+      </c>
+      <c r="AM201">
+        <v>320</v>
+      </c>
+      <c r="AN201">
+        <v>3000</v>
+      </c>
     </row>
     <row r="202" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A202">
@@ -23706,6 +23790,27 @@
       <c r="AF202">
         <v>1</v>
       </c>
+      <c r="AG202">
+        <v>1</v>
+      </c>
+      <c r="AH202">
+        <v>1</v>
+      </c>
+      <c r="AI202">
+        <v>1</v>
+      </c>
+      <c r="AJ202">
+        <v>1</v>
+      </c>
+      <c r="AK202">
+        <v>1</v>
+      </c>
+      <c r="AM202">
+        <v>7920</v>
+      </c>
+      <c r="AN202">
+        <v>10000</v>
+      </c>
     </row>
     <row r="203" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A203">
@@ -23801,6 +23906,27 @@
       <c r="AF203">
         <v>1</v>
       </c>
+      <c r="AG203">
+        <v>1</v>
+      </c>
+      <c r="AH203">
+        <v>1</v>
+      </c>
+      <c r="AI203">
+        <v>1</v>
+      </c>
+      <c r="AJ203">
+        <v>1</v>
+      </c>
+      <c r="AK203">
+        <v>1</v>
+      </c>
+      <c r="AM203">
+        <v>-40</v>
+      </c>
+      <c r="AN203">
+        <v>1000</v>
+      </c>
     </row>
     <row r="204" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A204">
@@ -23897,6 +24023,28 @@
       <c r="AF204">
         <v>1</v>
       </c>
+      <c r="AG204">
+        <v>1</v>
+      </c>
+      <c r="AH204">
+        <v>1</v>
+      </c>
+      <c r="AI204">
+        <v>1</v>
+      </c>
+      <c r="AJ204">
+        <v>1</v>
+      </c>
+      <c r="AK204">
+        <v>1</v>
+      </c>
+      <c r="AL204" s="2"/>
+      <c r="AM204">
+        <v>-1080</v>
+      </c>
+      <c r="AN204">
+        <v>1000</v>
+      </c>
     </row>
     <row r="205" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A205">
@@ -23992,6 +24140,27 @@
       <c r="AF205">
         <v>1</v>
       </c>
+      <c r="AG205">
+        <v>1</v>
+      </c>
+      <c r="AH205">
+        <v>1</v>
+      </c>
+      <c r="AI205">
+        <v>1</v>
+      </c>
+      <c r="AJ205">
+        <v>1</v>
+      </c>
+      <c r="AK205">
+        <v>1</v>
+      </c>
+      <c r="AM205">
+        <v>920</v>
+      </c>
+      <c r="AN205">
+        <v>3000</v>
+      </c>
     </row>
     <row r="206" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A206">
@@ -24087,6 +24256,27 @@
       <c r="AF206">
         <v>2</v>
       </c>
+      <c r="AG206">
+        <v>1</v>
+      </c>
+      <c r="AH206">
+        <v>1</v>
+      </c>
+      <c r="AI206">
+        <v>1</v>
+      </c>
+      <c r="AJ206">
+        <v>1</v>
+      </c>
+      <c r="AK206">
+        <v>1</v>
+      </c>
+      <c r="AM206">
+        <v>8960</v>
+      </c>
+      <c r="AN206">
+        <v>10000</v>
+      </c>
     </row>
     <row r="207" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A207">
@@ -24182,6 +24372,27 @@
       <c r="AF207">
         <v>1</v>
       </c>
+      <c r="AG207">
+        <v>1</v>
+      </c>
+      <c r="AH207">
+        <v>1</v>
+      </c>
+      <c r="AI207">
+        <v>1</v>
+      </c>
+      <c r="AJ207">
+        <v>1</v>
+      </c>
+      <c r="AK207">
+        <v>1</v>
+      </c>
+      <c r="AM207">
+        <v>-1080</v>
+      </c>
+      <c r="AN207">
+        <v>1000</v>
+      </c>
     </row>
     <row r="208" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A208">
@@ -24277,8 +24488,29 @@
       <c r="AF208">
         <v>1</v>
       </c>
+      <c r="AG208">
+        <v>1</v>
+      </c>
+      <c r="AH208">
+        <v>1</v>
+      </c>
+      <c r="AI208">
+        <v>1</v>
+      </c>
+      <c r="AJ208">
+        <v>1</v>
+      </c>
+      <c r="AK208">
+        <v>1</v>
+      </c>
+      <c r="AM208">
+        <v>-1080</v>
+      </c>
+      <c r="AN208">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A209">
         <v>203</v>
       </c>
@@ -24372,8 +24604,29 @@
       <c r="AF209">
         <v>2</v>
       </c>
+      <c r="AG209">
+        <v>1</v>
+      </c>
+      <c r="AH209">
+        <v>1</v>
+      </c>
+      <c r="AI209">
+        <v>1</v>
+      </c>
+      <c r="AJ209">
+        <v>1</v>
+      </c>
+      <c r="AK209">
+        <v>1</v>
+      </c>
+      <c r="AM209">
+        <v>8960</v>
+      </c>
+      <c r="AN209">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A210">
         <v>204</v>
       </c>
@@ -24467,8 +24720,29 @@
       <c r="AF210">
         <v>1</v>
       </c>
+      <c r="AG210">
+        <v>1</v>
+      </c>
+      <c r="AH210">
+        <v>1</v>
+      </c>
+      <c r="AI210">
+        <v>1</v>
+      </c>
+      <c r="AJ210">
+        <v>1</v>
+      </c>
+      <c r="AK210">
+        <v>1</v>
+      </c>
+      <c r="AM210">
+        <v>8960</v>
+      </c>
+      <c r="AN210">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A211">
         <v>205</v>
       </c>
@@ -24562,8 +24836,29 @@
       <c r="AF211">
         <v>1</v>
       </c>
+      <c r="AG211">
+        <v>1</v>
+      </c>
+      <c r="AH211">
+        <v>1</v>
+      </c>
+      <c r="AI211">
+        <v>1</v>
+      </c>
+      <c r="AJ211">
+        <v>1</v>
+      </c>
+      <c r="AK211">
+        <v>1</v>
+      </c>
+      <c r="AM211">
+        <v>8960</v>
+      </c>
+      <c r="AN211">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A212">
         <v>206</v>
       </c>
@@ -24657,8 +24952,29 @@
       <c r="AF212">
         <v>2</v>
       </c>
+      <c r="AG212">
+        <v>1</v>
+      </c>
+      <c r="AH212">
+        <v>1</v>
+      </c>
+      <c r="AI212">
+        <v>1</v>
+      </c>
+      <c r="AJ212">
+        <v>1</v>
+      </c>
+      <c r="AK212">
+        <v>1</v>
+      </c>
+      <c r="AM212">
+        <v>-40</v>
+      </c>
+      <c r="AN212">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A213">
         <v>207</v>
       </c>
@@ -24752,8 +25068,29 @@
       <c r="AF213">
         <v>1</v>
       </c>
+      <c r="AG213">
+        <v>1</v>
+      </c>
+      <c r="AH213">
+        <v>1</v>
+      </c>
+      <c r="AI213">
+        <v>1</v>
+      </c>
+      <c r="AJ213">
+        <v>1</v>
+      </c>
+      <c r="AK213">
+        <v>1</v>
+      </c>
+      <c r="AM213">
+        <v>1960</v>
+      </c>
+      <c r="AN213">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A214">
         <v>208</v>
       </c>
@@ -24847,8 +25184,29 @@
       <c r="AF214">
         <v>2</v>
       </c>
+      <c r="AG214">
+        <v>2</v>
+      </c>
+      <c r="AH214">
+        <v>2</v>
+      </c>
+      <c r="AI214">
+        <v>1</v>
+      </c>
+      <c r="AJ214">
+        <v>1</v>
+      </c>
+      <c r="AK214">
+        <v>1</v>
+      </c>
+      <c r="AM214">
+        <v>7320</v>
+      </c>
+      <c r="AN214">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A215">
         <v>209</v>
       </c>
@@ -24942,8 +25300,29 @@
       <c r="AF215">
         <v>2</v>
       </c>
+      <c r="AG215">
+        <v>1</v>
+      </c>
+      <c r="AH215">
+        <v>1</v>
+      </c>
+      <c r="AI215">
+        <v>1</v>
+      </c>
+      <c r="AJ215">
+        <v>1</v>
+      </c>
+      <c r="AK215">
+        <v>1</v>
+      </c>
+      <c r="AM215">
+        <v>8960</v>
+      </c>
+      <c r="AN215">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A216">
         <v>210</v>
       </c>
@@ -25037,8 +25416,29 @@
       <c r="AF216">
         <v>1</v>
       </c>
+      <c r="AG216">
+        <v>1</v>
+      </c>
+      <c r="AH216">
+        <v>1</v>
+      </c>
+      <c r="AI216">
+        <v>1</v>
+      </c>
+      <c r="AJ216">
+        <v>1</v>
+      </c>
+      <c r="AK216">
+        <v>1</v>
+      </c>
+      <c r="AM216">
+        <v>-40</v>
+      </c>
+      <c r="AN216">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A217">
         <v>211</v>
       </c>
@@ -25132,8 +25532,29 @@
       <c r="AF217">
         <v>1</v>
       </c>
+      <c r="AG217">
+        <v>1</v>
+      </c>
+      <c r="AH217">
+        <v>1</v>
+      </c>
+      <c r="AI217">
+        <v>1</v>
+      </c>
+      <c r="AJ217">
+        <v>1</v>
+      </c>
+      <c r="AK217">
+        <v>1</v>
+      </c>
+      <c r="AM217">
+        <v>-1080</v>
+      </c>
+      <c r="AN217">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A218">
         <v>212</v>
       </c>
@@ -25227,8 +25648,29 @@
       <c r="AF218">
         <v>1</v>
       </c>
+      <c r="AG218">
+        <v>1</v>
+      </c>
+      <c r="AH218">
+        <v>1</v>
+      </c>
+      <c r="AI218">
+        <v>1</v>
+      </c>
+      <c r="AJ218">
+        <v>1</v>
+      </c>
+      <c r="AK218">
+        <v>1</v>
+      </c>
+      <c r="AM218">
+        <v>7920</v>
+      </c>
+      <c r="AN218">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A219">
         <v>213</v>
       </c>
@@ -25322,8 +25764,29 @@
       <c r="AF219">
         <v>1</v>
       </c>
+      <c r="AG219">
+        <v>1</v>
+      </c>
+      <c r="AH219">
+        <v>1</v>
+      </c>
+      <c r="AI219">
+        <v>1</v>
+      </c>
+      <c r="AJ219">
+        <v>1</v>
+      </c>
+      <c r="AK219">
+        <v>1</v>
+      </c>
+      <c r="AM219">
+        <v>-40</v>
+      </c>
+      <c r="AN219">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A220">
         <v>214</v>
       </c>
@@ -25417,8 +25880,29 @@
       <c r="AF220">
         <v>1</v>
       </c>
+      <c r="AG220">
+        <v>1</v>
+      </c>
+      <c r="AH220">
+        <v>1</v>
+      </c>
+      <c r="AI220">
+        <v>1</v>
+      </c>
+      <c r="AJ220">
+        <v>1</v>
+      </c>
+      <c r="AK220">
+        <v>2</v>
+      </c>
+      <c r="AM220">
+        <v>-1380</v>
+      </c>
+      <c r="AN220">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A221">
         <v>215</v>
       </c>
@@ -25512,8 +25996,29 @@
       <c r="AF221">
         <v>2</v>
       </c>
+      <c r="AG221">
+        <v>1</v>
+      </c>
+      <c r="AH221">
+        <v>1</v>
+      </c>
+      <c r="AI221">
+        <v>1</v>
+      </c>
+      <c r="AJ221">
+        <v>1</v>
+      </c>
+      <c r="AK221">
+        <v>2</v>
+      </c>
+      <c r="AM221">
+        <v>-1380</v>
+      </c>
+      <c r="AN221">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A222">
         <v>216</v>
       </c>
@@ -25607,8 +26112,29 @@
       <c r="AF222">
         <v>1</v>
       </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
+      <c r="AH222">
+        <v>1</v>
+      </c>
+      <c r="AI222">
+        <v>2</v>
+      </c>
+      <c r="AJ222">
+        <v>1</v>
+      </c>
+      <c r="AK222">
+        <v>1</v>
+      </c>
+      <c r="AM222">
+        <v>620</v>
+      </c>
+      <c r="AN222">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A223">
         <v>217</v>
       </c>
@@ -25702,8 +26228,29 @@
       <c r="AF223">
         <v>1</v>
       </c>
+      <c r="AG223">
+        <v>1</v>
+      </c>
+      <c r="AH223">
+        <v>1</v>
+      </c>
+      <c r="AI223">
+        <v>1</v>
+      </c>
+      <c r="AJ223">
+        <v>1</v>
+      </c>
+      <c r="AK223">
+        <v>1</v>
+      </c>
+      <c r="AM223">
+        <v>920</v>
+      </c>
+      <c r="AN223">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A224">
         <v>218</v>
       </c>
@@ -25797,8 +26344,29 @@
       <c r="AF224">
         <v>1</v>
       </c>
+      <c r="AG224">
+        <v>1</v>
+      </c>
+      <c r="AH224">
+        <v>1</v>
+      </c>
+      <c r="AI224">
+        <v>1</v>
+      </c>
+      <c r="AJ224">
+        <v>1</v>
+      </c>
+      <c r="AK224">
+        <v>1</v>
+      </c>
+      <c r="AM224">
+        <v>-40</v>
+      </c>
+      <c r="AN224">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="225" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A225">
         <v>219</v>
       </c>
@@ -25892,8 +26460,29 @@
       <c r="AF225">
         <v>1</v>
       </c>
+      <c r="AG225">
+        <v>1</v>
+      </c>
+      <c r="AH225">
+        <v>1</v>
+      </c>
+      <c r="AI225">
+        <v>1</v>
+      </c>
+      <c r="AJ225">
+        <v>1</v>
+      </c>
+      <c r="AK225">
+        <v>1</v>
+      </c>
+      <c r="AM225">
+        <v>920</v>
+      </c>
+      <c r="AN225">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="226" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A226">
         <v>220</v>
       </c>
@@ -25987,8 +26576,29 @@
       <c r="AF226">
         <v>2</v>
       </c>
+      <c r="AG226">
+        <v>1</v>
+      </c>
+      <c r="AH226">
+        <v>1</v>
+      </c>
+      <c r="AI226">
+        <v>1</v>
+      </c>
+      <c r="AJ226">
+        <v>1</v>
+      </c>
+      <c r="AK226">
+        <v>1</v>
+      </c>
+      <c r="AM226">
+        <v>-1080</v>
+      </c>
+      <c r="AN226">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="227" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A227">
         <v>221</v>
       </c>
@@ -26082,8 +26692,29 @@
       <c r="AF227">
         <v>1</v>
       </c>
+      <c r="AG227">
+        <v>1</v>
+      </c>
+      <c r="AH227">
+        <v>1</v>
+      </c>
+      <c r="AI227">
+        <v>1</v>
+      </c>
+      <c r="AJ227">
+        <v>1</v>
+      </c>
+      <c r="AK227">
+        <v>1</v>
+      </c>
+      <c r="AM227">
+        <v>920</v>
+      </c>
+      <c r="AN227">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="228" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A228">
         <v>222</v>
       </c>
@@ -26177,8 +26808,29 @@
       <c r="AF228">
         <v>1</v>
       </c>
+      <c r="AG228">
+        <v>1</v>
+      </c>
+      <c r="AH228">
+        <v>1</v>
+      </c>
+      <c r="AI228">
+        <v>1</v>
+      </c>
+      <c r="AJ228">
+        <v>1</v>
+      </c>
+      <c r="AK228">
+        <v>1</v>
+      </c>
+      <c r="AM228">
+        <v>-40</v>
+      </c>
+      <c r="AN228">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="229" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A229">
         <v>223</v>
       </c>
@@ -26272,8 +26924,29 @@
       <c r="AF229">
         <v>1</v>
       </c>
+      <c r="AG229">
+        <v>1</v>
+      </c>
+      <c r="AH229">
+        <v>1</v>
+      </c>
+      <c r="AI229">
+        <v>1</v>
+      </c>
+      <c r="AJ229">
+        <v>1</v>
+      </c>
+      <c r="AK229">
+        <v>1</v>
+      </c>
+      <c r="AM229">
+        <v>920</v>
+      </c>
+      <c r="AN229">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="230" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A230">
         <v>224</v>
       </c>
@@ -26367,8 +27040,29 @@
       <c r="AF230">
         <v>1</v>
       </c>
+      <c r="AG230">
+        <v>1</v>
+      </c>
+      <c r="AH230">
+        <v>1</v>
+      </c>
+      <c r="AI230">
+        <v>1</v>
+      </c>
+      <c r="AJ230">
+        <v>1</v>
+      </c>
+      <c r="AK230">
+        <v>1</v>
+      </c>
+      <c r="AM230">
+        <v>-1080</v>
+      </c>
+      <c r="AN230">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="231" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A231">
         <v>225</v>
       </c>
@@ -26462,8 +27156,29 @@
       <c r="AF231">
         <v>1</v>
       </c>
+      <c r="AG231">
+        <v>1</v>
+      </c>
+      <c r="AH231">
+        <v>1</v>
+      </c>
+      <c r="AI231">
+        <v>1</v>
+      </c>
+      <c r="AJ231">
+        <v>1</v>
+      </c>
+      <c r="AK231">
+        <v>1</v>
+      </c>
+      <c r="AM231">
+        <v>7920</v>
+      </c>
+      <c r="AN231">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="232" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A232">
         <v>226</v>
       </c>
@@ -26557,8 +27272,29 @@
       <c r="AF232">
         <v>1</v>
       </c>
+      <c r="AG232">
+        <v>1</v>
+      </c>
+      <c r="AH232">
+        <v>1</v>
+      </c>
+      <c r="AI232">
+        <v>1</v>
+      </c>
+      <c r="AJ232">
+        <v>1</v>
+      </c>
+      <c r="AK232">
+        <v>1</v>
+      </c>
+      <c r="AM232">
+        <v>-40</v>
+      </c>
+      <c r="AN232">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="233" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A233">
         <v>227</v>
       </c>
@@ -26652,8 +27388,29 @@
       <c r="AF233">
         <v>1</v>
       </c>
+      <c r="AG233">
+        <v>1</v>
+      </c>
+      <c r="AH233">
+        <v>1</v>
+      </c>
+      <c r="AI233">
+        <v>1</v>
+      </c>
+      <c r="AJ233">
+        <v>1</v>
+      </c>
+      <c r="AK233">
+        <v>1</v>
+      </c>
+      <c r="AM233">
+        <v>-40</v>
+      </c>
+      <c r="AN233">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="234" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A234">
         <v>228</v>
       </c>
@@ -26747,8 +27504,29 @@
       <c r="AF234">
         <v>2</v>
       </c>
+      <c r="AG234">
+        <v>1</v>
+      </c>
+      <c r="AH234">
+        <v>1</v>
+      </c>
+      <c r="AI234">
+        <v>1</v>
+      </c>
+      <c r="AJ234">
+        <v>1</v>
+      </c>
+      <c r="AK234">
+        <v>1</v>
+      </c>
+      <c r="AM234">
+        <v>-40</v>
+      </c>
+      <c r="AN234">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="235" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A235">
         <v>229</v>
       </c>
@@ -26842,8 +27620,29 @@
       <c r="AF235">
         <v>1</v>
       </c>
+      <c r="AG235">
+        <v>1</v>
+      </c>
+      <c r="AH235">
+        <v>1</v>
+      </c>
+      <c r="AI235">
+        <v>1</v>
+      </c>
+      <c r="AJ235">
+        <v>1</v>
+      </c>
+      <c r="AK235">
+        <v>1</v>
+      </c>
+      <c r="AM235">
+        <v>920</v>
+      </c>
+      <c r="AN235">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="236" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A236">
         <v>230</v>
       </c>
@@ -26937,8 +27736,29 @@
       <c r="AF236">
         <v>2</v>
       </c>
+      <c r="AG236">
+        <v>1</v>
+      </c>
+      <c r="AH236">
+        <v>1</v>
+      </c>
+      <c r="AI236">
+        <v>1</v>
+      </c>
+      <c r="AJ236">
+        <v>1</v>
+      </c>
+      <c r="AK236">
+        <v>1</v>
+      </c>
+      <c r="AM236">
+        <v>1960</v>
+      </c>
+      <c r="AN236">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="237" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A237">
         <v>231</v>
       </c>
@@ -27032,8 +27852,29 @@
       <c r="AF237">
         <v>1</v>
       </c>
+      <c r="AG237">
+        <v>1</v>
+      </c>
+      <c r="AH237">
+        <v>1</v>
+      </c>
+      <c r="AI237">
+        <v>1</v>
+      </c>
+      <c r="AJ237">
+        <v>1</v>
+      </c>
+      <c r="AK237">
+        <v>1</v>
+      </c>
+      <c r="AM237">
+        <v>7920</v>
+      </c>
+      <c r="AN237">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="238" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A238">
         <v>232</v>
       </c>
@@ -27127,8 +27968,29 @@
       <c r="AF238">
         <v>1</v>
       </c>
+      <c r="AG238">
+        <v>1</v>
+      </c>
+      <c r="AH238">
+        <v>1</v>
+      </c>
+      <c r="AI238">
+        <v>1</v>
+      </c>
+      <c r="AJ238">
+        <v>1</v>
+      </c>
+      <c r="AK238">
+        <v>1</v>
+      </c>
+      <c r="AM238">
+        <v>8960</v>
+      </c>
+      <c r="AN238">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="239" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A239">
         <v>233</v>
       </c>
@@ -27222,8 +28084,29 @@
       <c r="AF239">
         <v>1</v>
       </c>
+      <c r="AG239">
+        <v>2</v>
+      </c>
+      <c r="AH239">
+        <v>1</v>
+      </c>
+      <c r="AI239">
+        <v>1</v>
+      </c>
+      <c r="AJ239">
+        <v>1</v>
+      </c>
+      <c r="AK239">
+        <v>1</v>
+      </c>
+      <c r="AM239">
+        <v>-340</v>
+      </c>
+      <c r="AN239">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="240" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A240">
         <v>234</v>
       </c>
@@ -27317,8 +28200,29 @@
       <c r="AF240">
         <v>1</v>
       </c>
+      <c r="AG240">
+        <v>1</v>
+      </c>
+      <c r="AH240">
+        <v>1</v>
+      </c>
+      <c r="AI240">
+        <v>1</v>
+      </c>
+      <c r="AJ240">
+        <v>1</v>
+      </c>
+      <c r="AK240">
+        <v>1</v>
+      </c>
+      <c r="AM240">
+        <v>-40</v>
+      </c>
+      <c r="AN240">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="241" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A241">
         <v>235</v>
       </c>
@@ -27412,8 +28316,29 @@
       <c r="AF241">
         <v>1</v>
       </c>
+      <c r="AG241">
+        <v>1</v>
+      </c>
+      <c r="AH241">
+        <v>1</v>
+      </c>
+      <c r="AI241">
+        <v>1</v>
+      </c>
+      <c r="AJ241">
+        <v>1</v>
+      </c>
+      <c r="AK241">
+        <v>1</v>
+      </c>
+      <c r="AM241">
+        <v>1960</v>
+      </c>
+      <c r="AN241">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="242" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A242">
         <v>236</v>
       </c>
@@ -27507,8 +28432,29 @@
       <c r="AF242">
         <v>1</v>
       </c>
+      <c r="AG242">
+        <v>1</v>
+      </c>
+      <c r="AH242">
+        <v>1</v>
+      </c>
+      <c r="AI242">
+        <v>1</v>
+      </c>
+      <c r="AJ242">
+        <v>1</v>
+      </c>
+      <c r="AK242">
+        <v>1</v>
+      </c>
+      <c r="AM242">
+        <v>920</v>
+      </c>
+      <c r="AN242">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="243" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A243">
         <v>237</v>
       </c>
@@ -27602,8 +28548,29 @@
       <c r="AF243">
         <v>1</v>
       </c>
+      <c r="AG243">
+        <v>1</v>
+      </c>
+      <c r="AH243">
+        <v>1</v>
+      </c>
+      <c r="AI243">
+        <v>1</v>
+      </c>
+      <c r="AJ243">
+        <v>1</v>
+      </c>
+      <c r="AK243">
+        <v>1</v>
+      </c>
+      <c r="AM243">
+        <v>-1080</v>
+      </c>
+      <c r="AN243">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A244">
         <v>238</v>
       </c>
@@ -27697,8 +28664,29 @@
       <c r="AF244">
         <v>2</v>
       </c>
+      <c r="AG244">
+        <v>1</v>
+      </c>
+      <c r="AH244">
+        <v>1</v>
+      </c>
+      <c r="AI244">
+        <v>1</v>
+      </c>
+      <c r="AJ244">
+        <v>1</v>
+      </c>
+      <c r="AK244">
+        <v>1</v>
+      </c>
+      <c r="AM244">
+        <v>-40</v>
+      </c>
+      <c r="AN244">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="245" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A245">
         <v>239</v>
       </c>
@@ -27792,8 +28780,29 @@
       <c r="AF245">
         <v>1</v>
       </c>
+      <c r="AG245">
+        <v>2</v>
+      </c>
+      <c r="AH245">
+        <v>1</v>
+      </c>
+      <c r="AI245">
+        <v>1</v>
+      </c>
+      <c r="AJ245">
+        <v>1</v>
+      </c>
+      <c r="AK245">
+        <v>1</v>
+      </c>
+      <c r="AM245">
+        <v>-340</v>
+      </c>
+      <c r="AN245">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="246" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A246">
         <v>240</v>
       </c>
@@ -27887,8 +28896,29 @@
       <c r="AF246">
         <v>1</v>
       </c>
+      <c r="AG246">
+        <v>1</v>
+      </c>
+      <c r="AH246">
+        <v>1</v>
+      </c>
+      <c r="AI246">
+        <v>1</v>
+      </c>
+      <c r="AJ246">
+        <v>1</v>
+      </c>
+      <c r="AK246">
+        <v>1</v>
+      </c>
+      <c r="AM246">
+        <v>920</v>
+      </c>
+      <c r="AN246">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="247" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A247">
         <v>241</v>
       </c>
@@ -27982,8 +29012,29 @@
       <c r="AF247">
         <v>2</v>
       </c>
+      <c r="AG247">
+        <v>1</v>
+      </c>
+      <c r="AH247">
+        <v>1</v>
+      </c>
+      <c r="AI247">
+        <v>1</v>
+      </c>
+      <c r="AJ247">
+        <v>1</v>
+      </c>
+      <c r="AK247">
+        <v>1</v>
+      </c>
+      <c r="AM247">
+        <v>1960</v>
+      </c>
+      <c r="AN247">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="248" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A248">
         <v>242</v>
       </c>
@@ -28077,8 +29128,29 @@
       <c r="AF248">
         <v>1</v>
       </c>
+      <c r="AG248">
+        <v>1</v>
+      </c>
+      <c r="AH248">
+        <v>1</v>
+      </c>
+      <c r="AI248">
+        <v>1</v>
+      </c>
+      <c r="AJ248">
+        <v>1</v>
+      </c>
+      <c r="AK248">
+        <v>1</v>
+      </c>
+      <c r="AM248">
+        <v>8960</v>
+      </c>
+      <c r="AN248">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="249" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A249">
         <v>243</v>
       </c>
@@ -28172,8 +29244,29 @@
       <c r="AF249">
         <v>1</v>
       </c>
+      <c r="AG249">
+        <v>1</v>
+      </c>
+      <c r="AH249">
+        <v>1</v>
+      </c>
+      <c r="AI249">
+        <v>1</v>
+      </c>
+      <c r="AJ249">
+        <v>1</v>
+      </c>
+      <c r="AK249">
+        <v>1</v>
+      </c>
+      <c r="AM249">
+        <v>-1080</v>
+      </c>
+      <c r="AN249">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="250" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A250">
         <v>244</v>
       </c>
@@ -28267,8 +29360,29 @@
       <c r="AF250">
         <v>2</v>
       </c>
+      <c r="AG250">
+        <v>2</v>
+      </c>
+      <c r="AH250">
+        <v>2</v>
+      </c>
+      <c r="AI250">
+        <v>1</v>
+      </c>
+      <c r="AJ250">
+        <v>1</v>
+      </c>
+      <c r="AK250">
+        <v>1</v>
+      </c>
+      <c r="AM250">
+        <v>-1680</v>
+      </c>
+      <c r="AN250">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="251" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A251">
         <v>245</v>
       </c>
@@ -28362,8 +29476,29 @@
       <c r="AF251">
         <v>1</v>
       </c>
+      <c r="AG251">
+        <v>1</v>
+      </c>
+      <c r="AH251">
+        <v>1</v>
+      </c>
+      <c r="AI251">
+        <v>1</v>
+      </c>
+      <c r="AJ251">
+        <v>1</v>
+      </c>
+      <c r="AK251">
+        <v>1</v>
+      </c>
+      <c r="AM251">
+        <v>920</v>
+      </c>
+      <c r="AN251">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="252" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A252">
         <v>246</v>
       </c>
@@ -28457,8 +29592,29 @@
       <c r="AF252">
         <v>1</v>
       </c>
+      <c r="AG252">
+        <v>1</v>
+      </c>
+      <c r="AH252">
+        <v>1</v>
+      </c>
+      <c r="AI252">
+        <v>1</v>
+      </c>
+      <c r="AJ252">
+        <v>1</v>
+      </c>
+      <c r="AK252">
+        <v>1</v>
+      </c>
+      <c r="AM252">
+        <v>-1080</v>
+      </c>
+      <c r="AN252">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="253" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A253">
         <v>247</v>
       </c>
@@ -28552,8 +29708,29 @@
       <c r="AF253">
         <v>2</v>
       </c>
+      <c r="AG253">
+        <v>1</v>
+      </c>
+      <c r="AH253">
+        <v>1</v>
+      </c>
+      <c r="AI253">
+        <v>1</v>
+      </c>
+      <c r="AJ253">
+        <v>1</v>
+      </c>
+      <c r="AK253">
+        <v>1</v>
+      </c>
+      <c r="AM253">
+        <v>-1080</v>
+      </c>
+      <c r="AN253">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="254" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A254">
         <v>248</v>
       </c>
@@ -28647,8 +29824,29 @@
       <c r="AF254">
         <v>1</v>
       </c>
+      <c r="AG254">
+        <v>1</v>
+      </c>
+      <c r="AH254">
+        <v>1</v>
+      </c>
+      <c r="AI254">
+        <v>1</v>
+      </c>
+      <c r="AJ254">
+        <v>1</v>
+      </c>
+      <c r="AK254">
+        <v>1</v>
+      </c>
+      <c r="AM254">
+        <v>8960</v>
+      </c>
+      <c r="AN254">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="255" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A255">
         <v>249</v>
       </c>
@@ -28742,8 +29940,29 @@
       <c r="AF255">
         <v>1</v>
       </c>
+      <c r="AG255">
+        <v>1</v>
+      </c>
+      <c r="AH255">
+        <v>1</v>
+      </c>
+      <c r="AI255">
+        <v>1</v>
+      </c>
+      <c r="AJ255">
+        <v>1</v>
+      </c>
+      <c r="AK255">
+        <v>1</v>
+      </c>
+      <c r="AM255">
+        <v>-1080</v>
+      </c>
+      <c r="AN255">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="256" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A256">
         <v>250</v>
       </c>
@@ -28837,8 +30056,29 @@
       <c r="AF256">
         <v>1</v>
       </c>
+      <c r="AG256">
+        <v>1</v>
+      </c>
+      <c r="AH256">
+        <v>1</v>
+      </c>
+      <c r="AI256">
+        <v>1</v>
+      </c>
+      <c r="AJ256">
+        <v>1</v>
+      </c>
+      <c r="AK256">
+        <v>1</v>
+      </c>
+      <c r="AM256">
+        <v>7920</v>
+      </c>
+      <c r="AN256">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="257" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A257">
         <v>251</v>
       </c>
@@ -28932,8 +30172,29 @@
       <c r="AF257">
         <v>1</v>
       </c>
+      <c r="AG257">
+        <v>1</v>
+      </c>
+      <c r="AH257">
+        <v>2</v>
+      </c>
+      <c r="AI257">
+        <v>1</v>
+      </c>
+      <c r="AJ257">
+        <v>1</v>
+      </c>
+      <c r="AK257">
+        <v>1</v>
+      </c>
+      <c r="AM257">
+        <v>8660</v>
+      </c>
+      <c r="AN257">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="258" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A258">
         <v>252</v>
       </c>
@@ -29027,8 +30288,29 @@
       <c r="AF258">
         <v>1</v>
       </c>
+      <c r="AG258">
+        <v>1</v>
+      </c>
+      <c r="AH258">
+        <v>1</v>
+      </c>
+      <c r="AI258">
+        <v>1</v>
+      </c>
+      <c r="AJ258">
+        <v>1</v>
+      </c>
+      <c r="AK258">
+        <v>1</v>
+      </c>
+      <c r="AM258">
+        <v>8960</v>
+      </c>
+      <c r="AN258">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="259" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A259">
         <v>253</v>
       </c>
@@ -29122,8 +30404,29 @@
       <c r="AF259">
         <v>1</v>
       </c>
+      <c r="AG259">
+        <v>1</v>
+      </c>
+      <c r="AH259">
+        <v>1</v>
+      </c>
+      <c r="AI259">
+        <v>1</v>
+      </c>
+      <c r="AJ259">
+        <v>1</v>
+      </c>
+      <c r="AK259">
+        <v>1</v>
+      </c>
+      <c r="AM259">
+        <v>8960</v>
+      </c>
+      <c r="AN259">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="260" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A260">
         <v>254</v>
       </c>
@@ -29217,8 +30520,29 @@
       <c r="AF260">
         <v>2</v>
       </c>
+      <c r="AG260">
+        <v>1</v>
+      </c>
+      <c r="AH260">
+        <v>1</v>
+      </c>
+      <c r="AI260">
+        <v>1</v>
+      </c>
+      <c r="AJ260">
+        <v>1</v>
+      </c>
+      <c r="AK260">
+        <v>1</v>
+      </c>
+      <c r="AM260">
+        <v>920</v>
+      </c>
+      <c r="AN260">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="261" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A261">
         <v>255</v>
       </c>
@@ -29312,8 +30636,29 @@
       <c r="AF261">
         <v>1</v>
       </c>
+      <c r="AG261">
+        <v>2</v>
+      </c>
+      <c r="AH261">
+        <v>1</v>
+      </c>
+      <c r="AI261">
+        <v>1</v>
+      </c>
+      <c r="AJ261">
+        <v>1</v>
+      </c>
+      <c r="AK261">
+        <v>1</v>
+      </c>
+      <c r="AM261">
+        <v>620</v>
+      </c>
+      <c r="AN261">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="262" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A262">
         <v>256</v>
       </c>
@@ -29407,8 +30752,29 @@
       <c r="AF262">
         <v>1</v>
       </c>
+      <c r="AG262">
+        <v>1</v>
+      </c>
+      <c r="AH262">
+        <v>1</v>
+      </c>
+      <c r="AI262">
+        <v>1</v>
+      </c>
+      <c r="AJ262">
+        <v>1</v>
+      </c>
+      <c r="AK262">
+        <v>1</v>
+      </c>
+      <c r="AM262">
+        <v>920</v>
+      </c>
+      <c r="AN262">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="263" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A263">
         <v>257</v>
       </c>
@@ -29502,8 +30868,29 @@
       <c r="AF263">
         <v>1</v>
       </c>
+      <c r="AG263">
+        <v>1</v>
+      </c>
+      <c r="AH263">
+        <v>1</v>
+      </c>
+      <c r="AI263">
+        <v>1</v>
+      </c>
+      <c r="AJ263">
+        <v>1</v>
+      </c>
+      <c r="AK263">
+        <v>1</v>
+      </c>
+      <c r="AM263">
+        <v>1960</v>
+      </c>
+      <c r="AN263">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="264" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A264">
         <v>258</v>
       </c>
@@ -29597,8 +30984,29 @@
       <c r="AF264">
         <v>2</v>
       </c>
+      <c r="AG264">
+        <v>1</v>
+      </c>
+      <c r="AH264">
+        <v>1</v>
+      </c>
+      <c r="AI264">
+        <v>1</v>
+      </c>
+      <c r="AJ264">
+        <v>1</v>
+      </c>
+      <c r="AK264">
+        <v>1</v>
+      </c>
+      <c r="AM264">
+        <v>-1080</v>
+      </c>
+      <c r="AN264">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="265" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A265">
         <v>259</v>
       </c>
@@ -29692,8 +31100,29 @@
       <c r="AF265">
         <v>2</v>
       </c>
+      <c r="AG265">
+        <v>2</v>
+      </c>
+      <c r="AH265">
+        <v>1</v>
+      </c>
+      <c r="AI265">
+        <v>1</v>
+      </c>
+      <c r="AJ265">
+        <v>1</v>
+      </c>
+      <c r="AK265">
+        <v>1</v>
+      </c>
+      <c r="AM265">
+        <v>8660</v>
+      </c>
+      <c r="AN265">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="266" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A266">
         <v>260</v>
       </c>
@@ -29787,8 +31216,29 @@
       <c r="AF266">
         <v>1</v>
       </c>
+      <c r="AG266">
+        <v>2</v>
+      </c>
+      <c r="AH266">
+        <v>1</v>
+      </c>
+      <c r="AI266">
+        <v>1</v>
+      </c>
+      <c r="AJ266">
+        <v>1</v>
+      </c>
+      <c r="AK266">
+        <v>2</v>
+      </c>
+      <c r="AM266">
+        <v>1360</v>
+      </c>
+      <c r="AN266">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="267" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A267">
         <v>261</v>
       </c>
@@ -29882,8 +31332,29 @@
       <c r="AF267">
         <v>1</v>
       </c>
+      <c r="AG267">
+        <v>1</v>
+      </c>
+      <c r="AH267">
+        <v>1</v>
+      </c>
+      <c r="AI267">
+        <v>1</v>
+      </c>
+      <c r="AJ267">
+        <v>1</v>
+      </c>
+      <c r="AK267">
+        <v>1</v>
+      </c>
+      <c r="AM267">
+        <v>7920</v>
+      </c>
+      <c r="AN267">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="268" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A268">
         <v>262</v>
       </c>
@@ -29977,8 +31448,29 @@
       <c r="AF268">
         <v>1</v>
       </c>
+      <c r="AG268">
+        <v>1</v>
+      </c>
+      <c r="AH268">
+        <v>1</v>
+      </c>
+      <c r="AI268">
+        <v>1</v>
+      </c>
+      <c r="AJ268">
+        <v>1</v>
+      </c>
+      <c r="AK268">
+        <v>1</v>
+      </c>
+      <c r="AM268">
+        <v>-1080</v>
+      </c>
+      <c r="AN268">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="269" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A269">
         <v>263</v>
       </c>
@@ -30072,8 +31564,29 @@
       <c r="AF269">
         <v>2</v>
       </c>
+      <c r="AG269">
+        <v>1</v>
+      </c>
+      <c r="AH269">
+        <v>1</v>
+      </c>
+      <c r="AI269">
+        <v>1</v>
+      </c>
+      <c r="AJ269">
+        <v>1</v>
+      </c>
+      <c r="AK269">
+        <v>1</v>
+      </c>
+      <c r="AM269">
+        <v>7920</v>
+      </c>
+      <c r="AN269">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="270" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A270">
         <v>264</v>
       </c>
@@ -30167,8 +31680,29 @@
       <c r="AF270">
         <v>2</v>
       </c>
+      <c r="AG270">
+        <v>1</v>
+      </c>
+      <c r="AH270">
+        <v>1</v>
+      </c>
+      <c r="AI270">
+        <v>1</v>
+      </c>
+      <c r="AJ270">
+        <v>1</v>
+      </c>
+      <c r="AK270">
+        <v>1</v>
+      </c>
+      <c r="AM270">
+        <v>920</v>
+      </c>
+      <c r="AN270">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="271" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A271">
         <v>265</v>
       </c>
@@ -30262,8 +31796,29 @@
       <c r="AF271">
         <v>1</v>
       </c>
+      <c r="AG271">
+        <v>1</v>
+      </c>
+      <c r="AH271">
+        <v>1</v>
+      </c>
+      <c r="AI271">
+        <v>1</v>
+      </c>
+      <c r="AJ271">
+        <v>1</v>
+      </c>
+      <c r="AK271">
+        <v>1</v>
+      </c>
+      <c r="AM271">
+        <v>7920</v>
+      </c>
+      <c r="AN271">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="272" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A272">
         <v>266</v>
       </c>
@@ -30357,8 +31912,29 @@
       <c r="AF272">
         <v>1</v>
       </c>
+      <c r="AG272">
+        <v>1</v>
+      </c>
+      <c r="AH272">
+        <v>1</v>
+      </c>
+      <c r="AI272">
+        <v>1</v>
+      </c>
+      <c r="AJ272">
+        <v>1</v>
+      </c>
+      <c r="AK272">
+        <v>1</v>
+      </c>
+      <c r="AM272">
+        <v>7920</v>
+      </c>
+      <c r="AN272">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="273" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A273">
         <v>267</v>
       </c>
@@ -30452,8 +32028,29 @@
       <c r="AF273">
         <v>1</v>
       </c>
+      <c r="AG273">
+        <v>1</v>
+      </c>
+      <c r="AH273">
+        <v>1</v>
+      </c>
+      <c r="AI273">
+        <v>1</v>
+      </c>
+      <c r="AJ273">
+        <v>1</v>
+      </c>
+      <c r="AK273">
+        <v>1</v>
+      </c>
+      <c r="AM273">
+        <v>7920</v>
+      </c>
+      <c r="AN273">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="274" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A274">
         <v>268</v>
       </c>
@@ -30547,8 +32144,29 @@
       <c r="AF274">
         <v>2</v>
       </c>
+      <c r="AG274">
+        <v>1</v>
+      </c>
+      <c r="AH274">
+        <v>1</v>
+      </c>
+      <c r="AI274">
+        <v>1</v>
+      </c>
+      <c r="AJ274">
+        <v>1</v>
+      </c>
+      <c r="AK274">
+        <v>1</v>
+      </c>
+      <c r="AM274">
+        <v>8960</v>
+      </c>
+      <c r="AN274">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="275" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A275">
         <v>269</v>
       </c>
@@ -30642,8 +32260,29 @@
       <c r="AF275">
         <v>1</v>
       </c>
+      <c r="AG275">
+        <v>1</v>
+      </c>
+      <c r="AH275">
+        <v>1</v>
+      </c>
+      <c r="AI275">
+        <v>1</v>
+      </c>
+      <c r="AJ275">
+        <v>1</v>
+      </c>
+      <c r="AK275">
+        <v>1</v>
+      </c>
+      <c r="AM275">
+        <v>920</v>
+      </c>
+      <c r="AN275">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="276" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A276">
         <v>270</v>
       </c>
@@ -30738,8 +32377,30 @@
       <c r="AF276">
         <v>1</v>
       </c>
+      <c r="AG276">
+        <v>1</v>
+      </c>
+      <c r="AH276">
+        <v>1</v>
+      </c>
+      <c r="AI276">
+        <v>1</v>
+      </c>
+      <c r="AJ276">
+        <v>1</v>
+      </c>
+      <c r="AK276">
+        <v>1</v>
+      </c>
+      <c r="AL276" s="2"/>
+      <c r="AM276">
+        <v>-1080</v>
+      </c>
+      <c r="AN276">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A277">
         <v>271</v>
       </c>
@@ -30833,8 +32494,29 @@
       <c r="AF277">
         <v>1</v>
       </c>
+      <c r="AG277">
+        <v>1</v>
+      </c>
+      <c r="AH277">
+        <v>1</v>
+      </c>
+      <c r="AI277">
+        <v>1</v>
+      </c>
+      <c r="AJ277">
+        <v>1</v>
+      </c>
+      <c r="AK277">
+        <v>2</v>
+      </c>
+      <c r="AM277">
+        <v>-1380</v>
+      </c>
+      <c r="AN277">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="278" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A278">
         <v>272</v>
       </c>
@@ -30928,8 +32610,29 @@
       <c r="AF278">
         <v>1</v>
       </c>
+      <c r="AG278">
+        <v>2</v>
+      </c>
+      <c r="AH278">
+        <v>1</v>
+      </c>
+      <c r="AI278">
+        <v>1</v>
+      </c>
+      <c r="AJ278">
+        <v>1</v>
+      </c>
+      <c r="AK278">
+        <v>1</v>
+      </c>
+      <c r="AM278">
+        <v>620</v>
+      </c>
+      <c r="AN278">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="279" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A279">
         <v>273</v>
       </c>
@@ -31023,8 +32726,29 @@
       <c r="AF279">
         <v>1</v>
       </c>
+      <c r="AG279">
+        <v>1</v>
+      </c>
+      <c r="AH279">
+        <v>2</v>
+      </c>
+      <c r="AI279">
+        <v>1</v>
+      </c>
+      <c r="AJ279">
+        <v>1</v>
+      </c>
+      <c r="AK279">
+        <v>1</v>
+      </c>
+      <c r="AM279">
+        <v>-340</v>
+      </c>
+      <c r="AN279">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="280" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A280">
         <v>274</v>
       </c>
@@ -31118,8 +32842,29 @@
       <c r="AF280">
         <v>1</v>
       </c>
+      <c r="AG280">
+        <v>1</v>
+      </c>
+      <c r="AH280">
+        <v>2</v>
+      </c>
+      <c r="AI280">
+        <v>1</v>
+      </c>
+      <c r="AJ280">
+        <v>1</v>
+      </c>
+      <c r="AK280">
+        <v>1</v>
+      </c>
+      <c r="AM280">
+        <v>620</v>
+      </c>
+      <c r="AN280">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="281" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A281">
         <v>275</v>
       </c>
@@ -31213,8 +32958,29 @@
       <c r="AF281">
         <v>1</v>
       </c>
+      <c r="AG281">
+        <v>1</v>
+      </c>
+      <c r="AH281">
+        <v>1</v>
+      </c>
+      <c r="AI281">
+        <v>1</v>
+      </c>
+      <c r="AJ281">
+        <v>2</v>
+      </c>
+      <c r="AK281">
+        <v>1</v>
+      </c>
+      <c r="AM281">
+        <v>-1380</v>
+      </c>
+      <c r="AN281">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="282" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A282">
         <v>276</v>
       </c>
@@ -31308,8 +33074,29 @@
       <c r="AF282">
         <v>1</v>
       </c>
+      <c r="AG282">
+        <v>1</v>
+      </c>
+      <c r="AH282">
+        <v>1</v>
+      </c>
+      <c r="AI282">
+        <v>1</v>
+      </c>
+      <c r="AJ282">
+        <v>1</v>
+      </c>
+      <c r="AK282">
+        <v>1</v>
+      </c>
+      <c r="AM282">
+        <v>920</v>
+      </c>
+      <c r="AN282">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="283" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A283">
         <v>277</v>
       </c>
@@ -31403,8 +33190,29 @@
       <c r="AF283">
         <v>1</v>
       </c>
+      <c r="AG283">
+        <v>1</v>
+      </c>
+      <c r="AH283">
+        <v>1</v>
+      </c>
+      <c r="AI283">
+        <v>1</v>
+      </c>
+      <c r="AJ283">
+        <v>1</v>
+      </c>
+      <c r="AK283">
+        <v>1</v>
+      </c>
+      <c r="AM283">
+        <v>-40</v>
+      </c>
+      <c r="AN283">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="284" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A284">
         <v>278</v>
       </c>
@@ -31498,8 +33306,29 @@
       <c r="AF284">
         <v>1</v>
       </c>
+      <c r="AG284">
+        <v>1</v>
+      </c>
+      <c r="AH284">
+        <v>1</v>
+      </c>
+      <c r="AI284">
+        <v>1</v>
+      </c>
+      <c r="AJ284">
+        <v>1</v>
+      </c>
+      <c r="AK284">
+        <v>1</v>
+      </c>
+      <c r="AM284">
+        <v>-40</v>
+      </c>
+      <c r="AN284">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="285" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A285">
         <v>279</v>
       </c>
@@ -31593,8 +33422,29 @@
       <c r="AF285">
         <v>1</v>
       </c>
+      <c r="AG285">
+        <v>1</v>
+      </c>
+      <c r="AH285">
+        <v>1</v>
+      </c>
+      <c r="AI285">
+        <v>1</v>
+      </c>
+      <c r="AJ285">
+        <v>1</v>
+      </c>
+      <c r="AK285">
+        <v>1</v>
+      </c>
+      <c r="AM285">
+        <v>8960</v>
+      </c>
+      <c r="AN285">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="286" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A286">
         <v>280</v>
       </c>
@@ -31688,8 +33538,29 @@
       <c r="AF286">
         <v>1</v>
       </c>
+      <c r="AG286">
+        <v>1</v>
+      </c>
+      <c r="AH286">
+        <v>1</v>
+      </c>
+      <c r="AI286">
+        <v>1</v>
+      </c>
+      <c r="AJ286">
+        <v>1</v>
+      </c>
+      <c r="AK286">
+        <v>1</v>
+      </c>
+      <c r="AM286">
+        <v>-40</v>
+      </c>
+      <c r="AN286">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="287" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A287">
         <v>281</v>
       </c>
@@ -31783,8 +33654,29 @@
       <c r="AF287">
         <v>1</v>
       </c>
+      <c r="AG287">
+        <v>1</v>
+      </c>
+      <c r="AH287">
+        <v>1</v>
+      </c>
+      <c r="AI287">
+        <v>1</v>
+      </c>
+      <c r="AJ287">
+        <v>1</v>
+      </c>
+      <c r="AK287">
+        <v>1</v>
+      </c>
+      <c r="AM287">
+        <v>-1080</v>
+      </c>
+      <c r="AN287">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="288" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A288">
         <v>282</v>
       </c>
@@ -31878,8 +33770,29 @@
       <c r="AF288">
         <v>1</v>
       </c>
+      <c r="AG288">
+        <v>1</v>
+      </c>
+      <c r="AH288">
+        <v>1</v>
+      </c>
+      <c r="AI288">
+        <v>1</v>
+      </c>
+      <c r="AJ288">
+        <v>1</v>
+      </c>
+      <c r="AK288">
+        <v>1</v>
+      </c>
+      <c r="AM288">
+        <v>-40</v>
+      </c>
+      <c r="AN288">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A289">
         <v>283</v>
       </c>
@@ -31973,8 +33886,29 @@
       <c r="AF289">
         <v>2</v>
       </c>
+      <c r="AG289">
+        <v>1</v>
+      </c>
+      <c r="AH289">
+        <v>1</v>
+      </c>
+      <c r="AI289">
+        <v>1</v>
+      </c>
+      <c r="AJ289">
+        <v>1</v>
+      </c>
+      <c r="AK289">
+        <v>1</v>
+      </c>
+      <c r="AM289">
+        <v>8960</v>
+      </c>
+      <c r="AN289">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="290" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A290">
         <v>284</v>
       </c>
@@ -32068,8 +34002,29 @@
       <c r="AF290">
         <v>1</v>
       </c>
+      <c r="AG290">
+        <v>1</v>
+      </c>
+      <c r="AH290">
+        <v>1</v>
+      </c>
+      <c r="AI290">
+        <v>1</v>
+      </c>
+      <c r="AJ290">
+        <v>1</v>
+      </c>
+      <c r="AK290">
+        <v>1</v>
+      </c>
+      <c r="AM290">
+        <v>7920</v>
+      </c>
+      <c r="AN290">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A291">
         <v>285</v>
       </c>
@@ -32163,8 +34118,29 @@
       <c r="AF291">
         <v>1</v>
       </c>
+      <c r="AG291">
+        <v>1</v>
+      </c>
+      <c r="AH291">
+        <v>1</v>
+      </c>
+      <c r="AI291">
+        <v>1</v>
+      </c>
+      <c r="AJ291">
+        <v>1</v>
+      </c>
+      <c r="AK291">
+        <v>1</v>
+      </c>
+      <c r="AM291">
+        <v>7920</v>
+      </c>
+      <c r="AN291">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A292">
         <v>286</v>
       </c>
@@ -32258,8 +34234,29 @@
       <c r="AF292">
         <v>2</v>
       </c>
+      <c r="AG292">
+        <v>1</v>
+      </c>
+      <c r="AH292">
+        <v>1</v>
+      </c>
+      <c r="AI292">
+        <v>1</v>
+      </c>
+      <c r="AJ292">
+        <v>1</v>
+      </c>
+      <c r="AK292">
+        <v>1</v>
+      </c>
+      <c r="AM292">
+        <v>920</v>
+      </c>
+      <c r="AN292">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="293" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A293">
         <v>287</v>
       </c>
@@ -32353,8 +34350,29 @@
       <c r="AF293">
         <v>1</v>
       </c>
+      <c r="AG293">
+        <v>1</v>
+      </c>
+      <c r="AH293">
+        <v>1</v>
+      </c>
+      <c r="AI293">
+        <v>1</v>
+      </c>
+      <c r="AJ293">
+        <v>1</v>
+      </c>
+      <c r="AK293">
+        <v>1</v>
+      </c>
+      <c r="AM293">
+        <v>-1080</v>
+      </c>
+      <c r="AN293">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A294">
         <v>288</v>
       </c>
@@ -32449,8 +34467,30 @@
       <c r="AF294">
         <v>1</v>
       </c>
+      <c r="AG294">
+        <v>1</v>
+      </c>
+      <c r="AH294">
+        <v>1</v>
+      </c>
+      <c r="AI294">
+        <v>1</v>
+      </c>
+      <c r="AJ294">
+        <v>1</v>
+      </c>
+      <c r="AK294">
+        <v>1</v>
+      </c>
+      <c r="AL294" s="2"/>
+      <c r="AM294">
+        <v>-1080</v>
+      </c>
+      <c r="AN294">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A295">
         <v>289</v>
       </c>
@@ -32544,8 +34584,29 @@
       <c r="AF295">
         <v>1</v>
       </c>
+      <c r="AG295">
+        <v>1</v>
+      </c>
+      <c r="AH295">
+        <v>1</v>
+      </c>
+      <c r="AI295">
+        <v>1</v>
+      </c>
+      <c r="AJ295">
+        <v>1</v>
+      </c>
+      <c r="AK295">
+        <v>1</v>
+      </c>
+      <c r="AM295">
+        <v>1960</v>
+      </c>
+      <c r="AN295">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A296">
         <v>290</v>
       </c>
@@ -32639,8 +34700,29 @@
       <c r="AF296">
         <v>1</v>
       </c>
+      <c r="AG296">
+        <v>1</v>
+      </c>
+      <c r="AH296">
+        <v>1</v>
+      </c>
+      <c r="AI296">
+        <v>1</v>
+      </c>
+      <c r="AJ296">
+        <v>1</v>
+      </c>
+      <c r="AK296">
+        <v>1</v>
+      </c>
+      <c r="AM296">
+        <v>7920</v>
+      </c>
+      <c r="AN296">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A297">
         <v>291</v>
       </c>
@@ -32734,8 +34816,29 @@
       <c r="AF297">
         <v>1</v>
       </c>
+      <c r="AG297">
+        <v>1</v>
+      </c>
+      <c r="AH297">
+        <v>1</v>
+      </c>
+      <c r="AI297">
+        <v>1</v>
+      </c>
+      <c r="AJ297">
+        <v>1</v>
+      </c>
+      <c r="AK297">
+        <v>1</v>
+      </c>
+      <c r="AM297">
+        <v>7920</v>
+      </c>
+      <c r="AN297">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="298" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A298">
         <v>292</v>
       </c>
@@ -32830,8 +34933,30 @@
       <c r="AF298">
         <v>1</v>
       </c>
+      <c r="AG298">
+        <v>1</v>
+      </c>
+      <c r="AH298">
+        <v>1</v>
+      </c>
+      <c r="AI298">
+        <v>1</v>
+      </c>
+      <c r="AJ298">
+        <v>1</v>
+      </c>
+      <c r="AK298">
+        <v>1</v>
+      </c>
+      <c r="AL298" s="2"/>
+      <c r="AM298">
+        <v>8960</v>
+      </c>
+      <c r="AN298">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A299">
         <v>293</v>
       </c>
@@ -32925,8 +35050,29 @@
       <c r="AF299">
         <v>2</v>
       </c>
+      <c r="AG299">
+        <v>1</v>
+      </c>
+      <c r="AH299">
+        <v>1</v>
+      </c>
+      <c r="AI299">
+        <v>1</v>
+      </c>
+      <c r="AJ299">
+        <v>1</v>
+      </c>
+      <c r="AK299">
+        <v>2</v>
+      </c>
+      <c r="AM299">
+        <v>-340</v>
+      </c>
+      <c r="AN299">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="300" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A300">
         <v>294</v>
       </c>
@@ -33020,8 +35166,29 @@
       <c r="AF300">
         <v>2</v>
       </c>
+      <c r="AG300">
+        <v>1</v>
+      </c>
+      <c r="AH300">
+        <v>1</v>
+      </c>
+      <c r="AI300">
+        <v>1</v>
+      </c>
+      <c r="AJ300">
+        <v>1</v>
+      </c>
+      <c r="AK300">
+        <v>1</v>
+      </c>
+      <c r="AM300">
+        <v>7920</v>
+      </c>
+      <c r="AN300">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A301">
         <v>295</v>
       </c>
@@ -33115,8 +35282,29 @@
       <c r="AF301">
         <v>1</v>
       </c>
+      <c r="AG301">
+        <v>1</v>
+      </c>
+      <c r="AH301">
+        <v>1</v>
+      </c>
+      <c r="AI301">
+        <v>1</v>
+      </c>
+      <c r="AJ301">
+        <v>1</v>
+      </c>
+      <c r="AK301">
+        <v>1</v>
+      </c>
+      <c r="AM301">
+        <v>-40</v>
+      </c>
+      <c r="AN301">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A302">
         <v>296</v>
       </c>
@@ -33210,8 +35398,29 @@
       <c r="AF302">
         <v>1</v>
       </c>
+      <c r="AG302">
+        <v>2</v>
+      </c>
+      <c r="AH302">
+        <v>2</v>
+      </c>
+      <c r="AI302">
+        <v>1</v>
+      </c>
+      <c r="AJ302">
+        <v>1</v>
+      </c>
+      <c r="AK302">
+        <v>1</v>
+      </c>
+      <c r="AM302">
+        <v>7320</v>
+      </c>
+      <c r="AN302">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A303">
         <v>297</v>
       </c>
@@ -33305,8 +35514,29 @@
       <c r="AF303">
         <v>1</v>
       </c>
+      <c r="AG303">
+        <v>1</v>
+      </c>
+      <c r="AH303">
+        <v>1</v>
+      </c>
+      <c r="AI303">
+        <v>1</v>
+      </c>
+      <c r="AJ303">
+        <v>1</v>
+      </c>
+      <c r="AK303">
+        <v>1</v>
+      </c>
+      <c r="AM303">
+        <v>-1080</v>
+      </c>
+      <c r="AN303">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A304">
         <v>298</v>
       </c>
@@ -33400,8 +35630,29 @@
       <c r="AF304">
         <v>1</v>
       </c>
+      <c r="AG304">
+        <v>1</v>
+      </c>
+      <c r="AH304">
+        <v>1</v>
+      </c>
+      <c r="AI304">
+        <v>2</v>
+      </c>
+      <c r="AJ304">
+        <v>2</v>
+      </c>
+      <c r="AK304">
+        <v>1</v>
+      </c>
+      <c r="AM304">
+        <v>-1980</v>
+      </c>
+      <c r="AN304">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="305" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A305">
         <v>299</v>
       </c>
@@ -33495,8 +35746,29 @@
       <c r="AF305">
         <v>2</v>
       </c>
+      <c r="AG305">
+        <v>1</v>
+      </c>
+      <c r="AH305">
+        <v>1</v>
+      </c>
+      <c r="AI305">
+        <v>1</v>
+      </c>
+      <c r="AJ305">
+        <v>1</v>
+      </c>
+      <c r="AK305">
+        <v>1</v>
+      </c>
+      <c r="AM305">
+        <v>1960</v>
+      </c>
+      <c r="AN305">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="306" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A306">
         <v>300</v>
       </c>
@@ -33590,8 +35862,29 @@
       <c r="AF306">
         <v>2</v>
       </c>
+      <c r="AG306">
+        <v>1</v>
+      </c>
+      <c r="AH306">
+        <v>1</v>
+      </c>
+      <c r="AI306">
+        <v>1</v>
+      </c>
+      <c r="AJ306">
+        <v>1</v>
+      </c>
+      <c r="AK306">
+        <v>1</v>
+      </c>
+      <c r="AM306">
+        <v>920</v>
+      </c>
+      <c r="AN306">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="307" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A307">
         <v>301</v>
       </c>
@@ -33685,8 +35978,29 @@
       <c r="AF307">
         <v>1</v>
       </c>
+      <c r="AG307">
+        <v>1</v>
+      </c>
+      <c r="AH307">
+        <v>1</v>
+      </c>
+      <c r="AI307">
+        <v>1</v>
+      </c>
+      <c r="AJ307">
+        <v>1</v>
+      </c>
+      <c r="AK307">
+        <v>1</v>
+      </c>
+      <c r="AM307">
+        <v>920</v>
+      </c>
+      <c r="AN307">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="308" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A308">
         <v>302</v>
       </c>
@@ -33780,8 +36094,29 @@
       <c r="AF308">
         <v>2</v>
       </c>
+      <c r="AG308">
+        <v>1</v>
+      </c>
+      <c r="AH308">
+        <v>1</v>
+      </c>
+      <c r="AI308">
+        <v>1</v>
+      </c>
+      <c r="AJ308">
+        <v>1</v>
+      </c>
+      <c r="AK308">
+        <v>1</v>
+      </c>
+      <c r="AM308">
+        <v>-1080</v>
+      </c>
+      <c r="AN308">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="309" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A309">
         <v>303</v>
       </c>
@@ -33875,8 +36210,29 @@
       <c r="AF309">
         <v>1</v>
       </c>
+      <c r="AG309">
+        <v>1</v>
+      </c>
+      <c r="AH309">
+        <v>1</v>
+      </c>
+      <c r="AI309">
+        <v>1</v>
+      </c>
+      <c r="AJ309">
+        <v>1</v>
+      </c>
+      <c r="AK309">
+        <v>1</v>
+      </c>
+      <c r="AM309">
+        <v>-40</v>
+      </c>
+      <c r="AN309">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="310" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A310">
         <v>304</v>
       </c>
@@ -33970,8 +36326,29 @@
       <c r="AF310">
         <v>1</v>
       </c>
+      <c r="AG310">
+        <v>1</v>
+      </c>
+      <c r="AH310">
+        <v>1</v>
+      </c>
+      <c r="AI310">
+        <v>2</v>
+      </c>
+      <c r="AJ310">
+        <v>1</v>
+      </c>
+      <c r="AK310">
+        <v>1</v>
+      </c>
+      <c r="AM310">
+        <v>7620</v>
+      </c>
+      <c r="AN310">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="311" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A311">
         <v>305</v>
       </c>
@@ -34065,8 +36442,29 @@
       <c r="AF311">
         <v>2</v>
       </c>
+      <c r="AG311">
+        <v>1</v>
+      </c>
+      <c r="AH311">
+        <v>1</v>
+      </c>
+      <c r="AI311">
+        <v>1</v>
+      </c>
+      <c r="AJ311">
+        <v>1</v>
+      </c>
+      <c r="AK311">
+        <v>1</v>
+      </c>
+      <c r="AM311">
+        <v>1960</v>
+      </c>
+      <c r="AN311">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="312" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A312">
         <v>306</v>
       </c>
@@ -34160,8 +36558,29 @@
       <c r="AF312">
         <v>1</v>
       </c>
+      <c r="AG312">
+        <v>1</v>
+      </c>
+      <c r="AH312">
+        <v>1</v>
+      </c>
+      <c r="AI312">
+        <v>1</v>
+      </c>
+      <c r="AJ312">
+        <v>1</v>
+      </c>
+      <c r="AK312">
+        <v>1</v>
+      </c>
+      <c r="AM312">
+        <v>7920</v>
+      </c>
+      <c r="AN312">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="313" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A313">
         <v>307</v>
       </c>
@@ -34255,8 +36674,29 @@
       <c r="AF313">
         <v>2</v>
       </c>
+      <c r="AG313">
+        <v>1</v>
+      </c>
+      <c r="AH313">
+        <v>1</v>
+      </c>
+      <c r="AI313">
+        <v>1</v>
+      </c>
+      <c r="AJ313">
+        <v>1</v>
+      </c>
+      <c r="AK313">
+        <v>1</v>
+      </c>
+      <c r="AM313">
+        <v>1960</v>
+      </c>
+      <c r="AN313">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="314" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A314">
         <v>308</v>
       </c>
@@ -34350,8 +36790,29 @@
       <c r="AF314">
         <v>1</v>
       </c>
+      <c r="AG314">
+        <v>1</v>
+      </c>
+      <c r="AH314">
+        <v>1</v>
+      </c>
+      <c r="AI314">
+        <v>1</v>
+      </c>
+      <c r="AJ314">
+        <v>1</v>
+      </c>
+      <c r="AK314">
+        <v>1</v>
+      </c>
+      <c r="AM314">
+        <v>1960</v>
+      </c>
+      <c r="AN314">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="315" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A315">
         <v>309</v>
       </c>
@@ -34445,8 +36906,29 @@
       <c r="AF315">
         <v>1</v>
       </c>
+      <c r="AG315">
+        <v>1</v>
+      </c>
+      <c r="AH315">
+        <v>1</v>
+      </c>
+      <c r="AI315">
+        <v>1</v>
+      </c>
+      <c r="AJ315">
+        <v>1</v>
+      </c>
+      <c r="AK315">
+        <v>1</v>
+      </c>
+      <c r="AM315">
+        <v>8960</v>
+      </c>
+      <c r="AN315">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="316" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A316">
         <v>310</v>
       </c>
@@ -34540,8 +37022,29 @@
       <c r="AF316">
         <v>1</v>
       </c>
+      <c r="AG316">
+        <v>1</v>
+      </c>
+      <c r="AH316">
+        <v>1</v>
+      </c>
+      <c r="AI316">
+        <v>1</v>
+      </c>
+      <c r="AJ316">
+        <v>1</v>
+      </c>
+      <c r="AK316">
+        <v>1</v>
+      </c>
+      <c r="AM316">
+        <v>1960</v>
+      </c>
+      <c r="AN316">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="317" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A317">
         <v>311</v>
       </c>
@@ -34635,8 +37138,29 @@
       <c r="AF317">
         <v>1</v>
       </c>
+      <c r="AG317">
+        <v>1</v>
+      </c>
+      <c r="AH317">
+        <v>1</v>
+      </c>
+      <c r="AI317">
+        <v>1</v>
+      </c>
+      <c r="AJ317">
+        <v>1</v>
+      </c>
+      <c r="AK317">
+        <v>1</v>
+      </c>
+      <c r="AM317">
+        <v>-1080</v>
+      </c>
+      <c r="AN317">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="318" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A318">
         <v>312</v>
       </c>
@@ -34730,8 +37254,29 @@
       <c r="AF318">
         <v>1</v>
       </c>
+      <c r="AG318">
+        <v>1</v>
+      </c>
+      <c r="AH318">
+        <v>1</v>
+      </c>
+      <c r="AI318">
+        <v>1</v>
+      </c>
+      <c r="AJ318">
+        <v>1</v>
+      </c>
+      <c r="AK318">
+        <v>1</v>
+      </c>
+      <c r="AM318">
+        <v>-40</v>
+      </c>
+      <c r="AN318">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="319" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A319">
         <v>313</v>
       </c>
@@ -34825,8 +37370,29 @@
       <c r="AF319">
         <v>1</v>
       </c>
+      <c r="AG319">
+        <v>1</v>
+      </c>
+      <c r="AH319">
+        <v>1</v>
+      </c>
+      <c r="AI319">
+        <v>1</v>
+      </c>
+      <c r="AJ319">
+        <v>1</v>
+      </c>
+      <c r="AK319">
+        <v>1</v>
+      </c>
+      <c r="AM319">
+        <v>320</v>
+      </c>
+      <c r="AN319">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="320" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A320">
         <v>314</v>
       </c>
@@ -34920,8 +37486,29 @@
       <c r="AF320">
         <v>1</v>
       </c>
+      <c r="AG320">
+        <v>1</v>
+      </c>
+      <c r="AH320">
+        <v>1</v>
+      </c>
+      <c r="AI320">
+        <v>1</v>
+      </c>
+      <c r="AJ320">
+        <v>1</v>
+      </c>
+      <c r="AK320">
+        <v>1</v>
+      </c>
+      <c r="AM320">
+        <v>-40</v>
+      </c>
+      <c r="AN320">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="321" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A321">
         <v>315</v>
       </c>
@@ -35015,8 +37602,29 @@
       <c r="AF321">
         <v>2</v>
       </c>
+      <c r="AG321">
+        <v>1</v>
+      </c>
+      <c r="AH321">
+        <v>1</v>
+      </c>
+      <c r="AI321">
+        <v>1</v>
+      </c>
+      <c r="AJ321">
+        <v>1</v>
+      </c>
+      <c r="AK321">
+        <v>1</v>
+      </c>
+      <c r="AM321">
+        <v>1960</v>
+      </c>
+      <c r="AN321">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="322" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A322">
         <v>316</v>
       </c>
@@ -35110,8 +37718,29 @@
       <c r="AF322">
         <v>1</v>
       </c>
+      <c r="AG322">
+        <v>1</v>
+      </c>
+      <c r="AH322">
+        <v>1</v>
+      </c>
+      <c r="AI322">
+        <v>1</v>
+      </c>
+      <c r="AJ322">
+        <v>1</v>
+      </c>
+      <c r="AK322">
+        <v>1</v>
+      </c>
+      <c r="AM322">
+        <v>-1080</v>
+      </c>
+      <c r="AN322">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="323" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A323">
         <v>317</v>
       </c>
@@ -35205,8 +37834,29 @@
       <c r="AF323">
         <v>1</v>
       </c>
+      <c r="AG323">
+        <v>1</v>
+      </c>
+      <c r="AH323">
+        <v>1</v>
+      </c>
+      <c r="AI323">
+        <v>1</v>
+      </c>
+      <c r="AJ323">
+        <v>1</v>
+      </c>
+      <c r="AK323">
+        <v>1</v>
+      </c>
+      <c r="AM323">
+        <v>920</v>
+      </c>
+      <c r="AN323">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="324" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A324">
         <v>318</v>
       </c>
@@ -35300,8 +37950,29 @@
       <c r="AF324">
         <v>1</v>
       </c>
+      <c r="AG324">
+        <v>1</v>
+      </c>
+      <c r="AH324">
+        <v>1</v>
+      </c>
+      <c r="AI324">
+        <v>1</v>
+      </c>
+      <c r="AJ324">
+        <v>1</v>
+      </c>
+      <c r="AK324">
+        <v>1</v>
+      </c>
+      <c r="AM324">
+        <v>-1080</v>
+      </c>
+      <c r="AN324">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="325" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A325">
         <v>319</v>
       </c>
@@ -35395,8 +38066,29 @@
       <c r="AF325">
         <v>2</v>
       </c>
+      <c r="AG325">
+        <v>1</v>
+      </c>
+      <c r="AH325">
+        <v>1</v>
+      </c>
+      <c r="AI325">
+        <v>1</v>
+      </c>
+      <c r="AJ325">
+        <v>1</v>
+      </c>
+      <c r="AK325">
+        <v>1</v>
+      </c>
+      <c r="AM325">
+        <v>-40</v>
+      </c>
+      <c r="AN325">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="326" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A326">
         <v>320</v>
       </c>
@@ -35490,8 +38182,29 @@
       <c r="AF326">
         <v>1</v>
       </c>
+      <c r="AG326">
+        <v>1</v>
+      </c>
+      <c r="AH326">
+        <v>1</v>
+      </c>
+      <c r="AI326">
+        <v>1</v>
+      </c>
+      <c r="AJ326">
+        <v>1</v>
+      </c>
+      <c r="AK326">
+        <v>1</v>
+      </c>
+      <c r="AM326">
+        <v>-40</v>
+      </c>
+      <c r="AN326">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="327" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A327">
         <v>321</v>
       </c>
@@ -35585,8 +38298,29 @@
       <c r="AF327">
         <v>2</v>
       </c>
+      <c r="AG327">
+        <v>2</v>
+      </c>
+      <c r="AH327">
+        <v>1</v>
+      </c>
+      <c r="AI327">
+        <v>1</v>
+      </c>
+      <c r="AJ327">
+        <v>1</v>
+      </c>
+      <c r="AK327">
+        <v>1</v>
+      </c>
+      <c r="AM327">
+        <v>-340</v>
+      </c>
+      <c r="AN327">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="328" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A328">
         <v>322</v>
       </c>
@@ -35681,8 +38415,30 @@
       <c r="AF328">
         <v>2</v>
       </c>
+      <c r="AG328">
+        <v>1</v>
+      </c>
+      <c r="AH328">
+        <v>1</v>
+      </c>
+      <c r="AI328">
+        <v>1</v>
+      </c>
+      <c r="AJ328">
+        <v>1</v>
+      </c>
+      <c r="AK328">
+        <v>1</v>
+      </c>
+      <c r="AL328" s="2"/>
+      <c r="AM328">
+        <v>8960</v>
+      </c>
+      <c r="AN328">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="329" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A329">
         <v>323</v>
       </c>
@@ -35776,8 +38532,29 @@
       <c r="AF329">
         <v>1</v>
       </c>
+      <c r="AG329">
+        <v>1</v>
+      </c>
+      <c r="AH329">
+        <v>1</v>
+      </c>
+      <c r="AI329">
+        <v>1</v>
+      </c>
+      <c r="AJ329">
+        <v>1</v>
+      </c>
+      <c r="AK329">
+        <v>1</v>
+      </c>
+      <c r="AM329">
+        <v>920</v>
+      </c>
+      <c r="AN329">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="330" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A330">
         <v>324</v>
       </c>
@@ -35871,8 +38648,29 @@
       <c r="AF330">
         <v>1</v>
       </c>
+      <c r="AG330">
+        <v>1</v>
+      </c>
+      <c r="AH330">
+        <v>1</v>
+      </c>
+      <c r="AI330">
+        <v>1</v>
+      </c>
+      <c r="AJ330">
+        <v>1</v>
+      </c>
+      <c r="AK330">
+        <v>1</v>
+      </c>
+      <c r="AM330">
+        <v>7920</v>
+      </c>
+      <c r="AN330">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="331" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A331">
         <v>325</v>
       </c>
@@ -35966,8 +38764,29 @@
       <c r="AF331">
         <v>1</v>
       </c>
+      <c r="AG331">
+        <v>1</v>
+      </c>
+      <c r="AH331">
+        <v>1</v>
+      </c>
+      <c r="AI331">
+        <v>2</v>
+      </c>
+      <c r="AJ331">
+        <v>1</v>
+      </c>
+      <c r="AK331">
+        <v>1</v>
+      </c>
+      <c r="AM331">
+        <v>-340</v>
+      </c>
+      <c r="AN331">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="332" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A332">
         <v>326</v>
       </c>
@@ -36061,8 +38880,29 @@
       <c r="AF332">
         <v>1</v>
       </c>
+      <c r="AG332">
+        <v>1</v>
+      </c>
+      <c r="AH332">
+        <v>1</v>
+      </c>
+      <c r="AI332">
+        <v>1</v>
+      </c>
+      <c r="AJ332">
+        <v>1</v>
+      </c>
+      <c r="AK332">
+        <v>1</v>
+      </c>
+      <c r="AM332">
+        <v>-1080</v>
+      </c>
+      <c r="AN332">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="333" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A333">
         <v>327</v>
       </c>
@@ -36157,8 +38997,30 @@
       <c r="AF333">
         <v>1</v>
       </c>
+      <c r="AG333">
+        <v>1</v>
+      </c>
+      <c r="AH333">
+        <v>1</v>
+      </c>
+      <c r="AI333">
+        <v>1</v>
+      </c>
+      <c r="AJ333">
+        <v>1</v>
+      </c>
+      <c r="AK333">
+        <v>1</v>
+      </c>
+      <c r="AL333" s="2"/>
+      <c r="AM333">
+        <v>920</v>
+      </c>
+      <c r="AN333">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="334" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A334">
         <v>328</v>
       </c>
@@ -36252,8 +39114,29 @@
       <c r="AF334">
         <v>1</v>
       </c>
+      <c r="AG334">
+        <v>1</v>
+      </c>
+      <c r="AH334">
+        <v>1</v>
+      </c>
+      <c r="AI334">
+        <v>1</v>
+      </c>
+      <c r="AJ334">
+        <v>1</v>
+      </c>
+      <c r="AK334">
+        <v>1</v>
+      </c>
+      <c r="AM334">
+        <v>-40</v>
+      </c>
+      <c r="AN334">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="335" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A335">
         <v>329</v>
       </c>
@@ -36347,8 +39230,29 @@
       <c r="AF335">
         <v>1</v>
       </c>
+      <c r="AG335">
+        <v>1</v>
+      </c>
+      <c r="AH335">
+        <v>1</v>
+      </c>
+      <c r="AI335">
+        <v>1</v>
+      </c>
+      <c r="AJ335">
+        <v>1</v>
+      </c>
+      <c r="AK335">
+        <v>1</v>
+      </c>
+      <c r="AM335">
+        <v>-1080</v>
+      </c>
+      <c r="AN335">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="336" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A336">
         <v>330</v>
       </c>
@@ -36442,8 +39346,29 @@
       <c r="AF336">
         <v>2</v>
       </c>
+      <c r="AG336">
+        <v>1</v>
+      </c>
+      <c r="AH336">
+        <v>1</v>
+      </c>
+      <c r="AI336">
+        <v>1</v>
+      </c>
+      <c r="AJ336">
+        <v>1</v>
+      </c>
+      <c r="AK336">
+        <v>1</v>
+      </c>
+      <c r="AM336">
+        <v>920</v>
+      </c>
+      <c r="AN336">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="337" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A337">
         <v>331</v>
       </c>
@@ -36537,8 +39462,29 @@
       <c r="AF337">
         <v>1</v>
       </c>
+      <c r="AG337">
+        <v>1</v>
+      </c>
+      <c r="AH337">
+        <v>1</v>
+      </c>
+      <c r="AI337">
+        <v>1</v>
+      </c>
+      <c r="AJ337">
+        <v>1</v>
+      </c>
+      <c r="AK337">
+        <v>1</v>
+      </c>
+      <c r="AM337">
+        <v>-40</v>
+      </c>
+      <c r="AN337">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="338" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A338">
         <v>332</v>
       </c>
@@ -36632,8 +39578,29 @@
       <c r="AF338">
         <v>2</v>
       </c>
+      <c r="AG338">
+        <v>1</v>
+      </c>
+      <c r="AH338">
+        <v>1</v>
+      </c>
+      <c r="AI338">
+        <v>1</v>
+      </c>
+      <c r="AJ338">
+        <v>1</v>
+      </c>
+      <c r="AK338">
+        <v>1</v>
+      </c>
+      <c r="AM338">
+        <v>8960</v>
+      </c>
+      <c r="AN338">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="339" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A339">
         <v>333</v>
       </c>
@@ -36727,8 +39694,29 @@
       <c r="AF339">
         <v>1</v>
       </c>
+      <c r="AG339">
+        <v>1</v>
+      </c>
+      <c r="AH339">
+        <v>1</v>
+      </c>
+      <c r="AI339">
+        <v>2</v>
+      </c>
+      <c r="AJ339">
+        <v>1</v>
+      </c>
+      <c r="AK339">
+        <v>1</v>
+      </c>
+      <c r="AM339">
+        <v>8660</v>
+      </c>
+      <c r="AN339">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="340" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A340">
         <v>334</v>
       </c>
@@ -36822,8 +39810,29 @@
       <c r="AF340">
         <v>2</v>
       </c>
+      <c r="AG340">
+        <v>1</v>
+      </c>
+      <c r="AH340">
+        <v>1</v>
+      </c>
+      <c r="AI340">
+        <v>1</v>
+      </c>
+      <c r="AJ340">
+        <v>1</v>
+      </c>
+      <c r="AK340">
+        <v>1</v>
+      </c>
+      <c r="AM340">
+        <v>1960</v>
+      </c>
+      <c r="AN340">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="341" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A341">
         <v>335</v>
       </c>
@@ -36917,8 +39926,29 @@
       <c r="AF341">
         <v>1</v>
       </c>
+      <c r="AG341">
+        <v>1</v>
+      </c>
+      <c r="AH341">
+        <v>1</v>
+      </c>
+      <c r="AI341">
+        <v>1</v>
+      </c>
+      <c r="AJ341">
+        <v>1</v>
+      </c>
+      <c r="AK341">
+        <v>1</v>
+      </c>
+      <c r="AM341">
+        <v>920</v>
+      </c>
+      <c r="AN341">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="342" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A342">
         <v>336</v>
       </c>
@@ -37013,8 +40043,30 @@
       <c r="AF342">
         <v>2</v>
       </c>
+      <c r="AG342">
+        <v>1</v>
+      </c>
+      <c r="AH342">
+        <v>1</v>
+      </c>
+      <c r="AI342">
+        <v>1</v>
+      </c>
+      <c r="AJ342">
+        <v>1</v>
+      </c>
+      <c r="AK342">
+        <v>1</v>
+      </c>
+      <c r="AL342" s="2"/>
+      <c r="AM342">
+        <v>8960</v>
+      </c>
+      <c r="AN342">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="343" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A343">
         <v>337</v>
       </c>
@@ -37108,8 +40160,29 @@
       <c r="AF343">
         <v>1</v>
       </c>
+      <c r="AG343">
+        <v>1</v>
+      </c>
+      <c r="AH343">
+        <v>1</v>
+      </c>
+      <c r="AI343">
+        <v>1</v>
+      </c>
+      <c r="AJ343">
+        <v>1</v>
+      </c>
+      <c r="AK343">
+        <v>1</v>
+      </c>
+      <c r="AM343">
+        <v>-40</v>
+      </c>
+      <c r="AN343">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="344" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A344">
         <v>338</v>
       </c>
@@ -37203,8 +40276,29 @@
       <c r="AF344">
         <v>2</v>
       </c>
+      <c r="AG344">
+        <v>1</v>
+      </c>
+      <c r="AH344">
+        <v>1</v>
+      </c>
+      <c r="AI344">
+        <v>1</v>
+      </c>
+      <c r="AJ344">
+        <v>1</v>
+      </c>
+      <c r="AK344">
+        <v>1</v>
+      </c>
+      <c r="AM344">
+        <v>-1380</v>
+      </c>
+      <c r="AN344">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="345" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A345">
         <v>339</v>
       </c>
@@ -37298,8 +40392,29 @@
       <c r="AF345">
         <v>2</v>
       </c>
+      <c r="AG345">
+        <v>1</v>
+      </c>
+      <c r="AH345">
+        <v>1</v>
+      </c>
+      <c r="AI345">
+        <v>1</v>
+      </c>
+      <c r="AJ345">
+        <v>1</v>
+      </c>
+      <c r="AK345">
+        <v>1</v>
+      </c>
+      <c r="AM345">
+        <v>1960</v>
+      </c>
+      <c r="AN345">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="346" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A346">
         <v>340</v>
       </c>
@@ -37393,8 +40508,29 @@
       <c r="AF346">
         <v>1</v>
       </c>
+      <c r="AG346">
+        <v>1</v>
+      </c>
+      <c r="AH346">
+        <v>1</v>
+      </c>
+      <c r="AI346">
+        <v>1</v>
+      </c>
+      <c r="AJ346">
+        <v>1</v>
+      </c>
+      <c r="AK346">
+        <v>1</v>
+      </c>
+      <c r="AM346">
+        <v>-1080</v>
+      </c>
+      <c r="AN346">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="347" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A347">
         <v>341</v>
       </c>
@@ -37488,8 +40624,29 @@
       <c r="AF347">
         <v>1</v>
       </c>
+      <c r="AG347">
+        <v>1</v>
+      </c>
+      <c r="AH347">
+        <v>1</v>
+      </c>
+      <c r="AI347">
+        <v>1</v>
+      </c>
+      <c r="AJ347">
+        <v>1</v>
+      </c>
+      <c r="AK347">
+        <v>1</v>
+      </c>
+      <c r="AM347">
+        <v>8960</v>
+      </c>
+      <c r="AN347">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="348" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A348">
         <v>342</v>
       </c>
@@ -37583,8 +40740,29 @@
       <c r="AF348">
         <v>1</v>
       </c>
+      <c r="AG348">
+        <v>1</v>
+      </c>
+      <c r="AH348">
+        <v>1</v>
+      </c>
+      <c r="AI348">
+        <v>1</v>
+      </c>
+      <c r="AJ348">
+        <v>2</v>
+      </c>
+      <c r="AK348">
+        <v>1</v>
+      </c>
+      <c r="AM348">
+        <v>-340</v>
+      </c>
+      <c r="AN348">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="349" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A349">
         <v>343</v>
       </c>
@@ -37678,8 +40856,29 @@
       <c r="AF349">
         <v>1</v>
       </c>
+      <c r="AG349">
+        <v>1</v>
+      </c>
+      <c r="AH349">
+        <v>1</v>
+      </c>
+      <c r="AI349">
+        <v>1</v>
+      </c>
+      <c r="AJ349">
+        <v>1</v>
+      </c>
+      <c r="AK349">
+        <v>1</v>
+      </c>
+      <c r="AM349">
+        <v>920</v>
+      </c>
+      <c r="AN349">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="350" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A350">
         <v>344</v>
       </c>
@@ -37773,8 +40972,29 @@
       <c r="AF350">
         <v>1</v>
       </c>
+      <c r="AG350">
+        <v>1</v>
+      </c>
+      <c r="AH350">
+        <v>1</v>
+      </c>
+      <c r="AI350">
+        <v>1</v>
+      </c>
+      <c r="AJ350">
+        <v>1</v>
+      </c>
+      <c r="AK350">
+        <v>1</v>
+      </c>
+      <c r="AM350">
+        <v>-1080</v>
+      </c>
+      <c r="AN350">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="351" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A351">
         <v>345</v>
       </c>
@@ -37868,8 +41088,29 @@
       <c r="AF351">
         <v>2</v>
       </c>
+      <c r="AG351">
+        <v>1</v>
+      </c>
+      <c r="AH351">
+        <v>1</v>
+      </c>
+      <c r="AI351">
+        <v>1</v>
+      </c>
+      <c r="AJ351">
+        <v>1</v>
+      </c>
+      <c r="AK351">
+        <v>1</v>
+      </c>
+      <c r="AM351">
+        <v>-40</v>
+      </c>
+      <c r="AN351">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="352" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A352">
         <v>346</v>
       </c>
@@ -37963,8 +41204,29 @@
       <c r="AF352">
         <v>1</v>
       </c>
+      <c r="AG352">
+        <v>1</v>
+      </c>
+      <c r="AH352">
+        <v>1</v>
+      </c>
+      <c r="AI352">
+        <v>1</v>
+      </c>
+      <c r="AJ352">
+        <v>1</v>
+      </c>
+      <c r="AK352">
+        <v>1</v>
+      </c>
+      <c r="AM352">
+        <v>7920</v>
+      </c>
+      <c r="AN352">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="353" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A353">
         <v>347</v>
       </c>
@@ -38058,8 +41320,29 @@
       <c r="AF353">
         <v>2</v>
       </c>
+      <c r="AG353">
+        <v>1</v>
+      </c>
+      <c r="AH353">
+        <v>2</v>
+      </c>
+      <c r="AI353">
+        <v>1</v>
+      </c>
+      <c r="AJ353">
+        <v>1</v>
+      </c>
+      <c r="AK353">
+        <v>1</v>
+      </c>
+      <c r="AM353">
+        <v>8660</v>
+      </c>
+      <c r="AN353">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="354" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A354">
         <v>348</v>
       </c>
@@ -38153,8 +41436,29 @@
       <c r="AF354">
         <v>2</v>
       </c>
+      <c r="AG354">
+        <v>1</v>
+      </c>
+      <c r="AH354">
+        <v>1</v>
+      </c>
+      <c r="AI354">
+        <v>1</v>
+      </c>
+      <c r="AJ354">
+        <v>1</v>
+      </c>
+      <c r="AK354">
+        <v>1</v>
+      </c>
+      <c r="AM354">
+        <v>1960</v>
+      </c>
+      <c r="AN354">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="355" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A355">
         <v>349</v>
       </c>
@@ -38248,8 +41552,29 @@
       <c r="AF355">
         <v>1</v>
       </c>
+      <c r="AG355">
+        <v>1</v>
+      </c>
+      <c r="AH355">
+        <v>1</v>
+      </c>
+      <c r="AI355">
+        <v>2</v>
+      </c>
+      <c r="AJ355">
+        <v>1</v>
+      </c>
+      <c r="AK355">
+        <v>1</v>
+      </c>
+      <c r="AM355">
+        <v>-340</v>
+      </c>
+      <c r="AN355">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="356" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A356">
         <v>350</v>
       </c>
@@ -38343,8 +41668,29 @@
       <c r="AF356">
         <v>1</v>
       </c>
+      <c r="AG356">
+        <v>1</v>
+      </c>
+      <c r="AH356">
+        <v>1</v>
+      </c>
+      <c r="AI356">
+        <v>1</v>
+      </c>
+      <c r="AJ356">
+        <v>1</v>
+      </c>
+      <c r="AK356">
+        <v>2</v>
+      </c>
+      <c r="AM356">
+        <v>1660</v>
+      </c>
+      <c r="AN356">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="357" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A357">
         <v>351</v>
       </c>
@@ -38438,8 +41784,29 @@
       <c r="AF357">
         <v>1</v>
       </c>
+      <c r="AG357">
+        <v>1</v>
+      </c>
+      <c r="AH357">
+        <v>1</v>
+      </c>
+      <c r="AI357">
+        <v>1</v>
+      </c>
+      <c r="AJ357">
+        <v>1</v>
+      </c>
+      <c r="AK357">
+        <v>1</v>
+      </c>
+      <c r="AM357">
+        <v>-40</v>
+      </c>
+      <c r="AN357">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="358" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A358">
         <v>352</v>
       </c>
@@ -38533,8 +41900,29 @@
       <c r="AF358">
         <v>1</v>
       </c>
+      <c r="AG358">
+        <v>1</v>
+      </c>
+      <c r="AH358">
+        <v>1</v>
+      </c>
+      <c r="AI358">
+        <v>1</v>
+      </c>
+      <c r="AJ358">
+        <v>1</v>
+      </c>
+      <c r="AK358">
+        <v>1</v>
+      </c>
+      <c r="AM358">
+        <v>7920</v>
+      </c>
+      <c r="AN358">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="359" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A359">
         <v>353</v>
       </c>
@@ -38628,8 +42016,29 @@
       <c r="AF359">
         <v>1</v>
       </c>
+      <c r="AG359">
+        <v>1</v>
+      </c>
+      <c r="AH359">
+        <v>1</v>
+      </c>
+      <c r="AI359">
+        <v>1</v>
+      </c>
+      <c r="AJ359">
+        <v>1</v>
+      </c>
+      <c r="AK359">
+        <v>1</v>
+      </c>
+      <c r="AM359">
+        <v>1960</v>
+      </c>
+      <c r="AN359">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="360" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A360">
         <v>354</v>
       </c>
@@ -38723,8 +42132,29 @@
       <c r="AF360">
         <v>1</v>
       </c>
+      <c r="AG360">
+        <v>1</v>
+      </c>
+      <c r="AH360">
+        <v>1</v>
+      </c>
+      <c r="AI360">
+        <v>1</v>
+      </c>
+      <c r="AJ360">
+        <v>1</v>
+      </c>
+      <c r="AK360">
+        <v>1</v>
+      </c>
+      <c r="AM360">
+        <v>7620</v>
+      </c>
+      <c r="AN360">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="361" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A361">
         <v>355</v>
       </c>
@@ -38818,8 +42248,29 @@
       <c r="AF361">
         <v>1</v>
       </c>
+      <c r="AG361">
+        <v>1</v>
+      </c>
+      <c r="AH361">
+        <v>1</v>
+      </c>
+      <c r="AI361">
+        <v>1</v>
+      </c>
+      <c r="AJ361">
+        <v>1</v>
+      </c>
+      <c r="AK361">
+        <v>1</v>
+      </c>
+      <c r="AM361">
+        <v>920</v>
+      </c>
+      <c r="AN361">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="362" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A362">
         <v>356</v>
       </c>
@@ -38913,8 +42364,29 @@
       <c r="AF362">
         <v>1</v>
       </c>
+      <c r="AG362">
+        <v>1</v>
+      </c>
+      <c r="AH362">
+        <v>1</v>
+      </c>
+      <c r="AI362">
+        <v>1</v>
+      </c>
+      <c r="AJ362">
+        <v>1</v>
+      </c>
+      <c r="AK362">
+        <v>1</v>
+      </c>
+      <c r="AM362">
+        <v>8960</v>
+      </c>
+      <c r="AN362">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="363" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A363">
         <v>357</v>
       </c>
@@ -39008,8 +42480,29 @@
       <c r="AF363">
         <v>1</v>
       </c>
+      <c r="AG363">
+        <v>1</v>
+      </c>
+      <c r="AH363">
+        <v>1</v>
+      </c>
+      <c r="AI363">
+        <v>1</v>
+      </c>
+      <c r="AJ363">
+        <v>1</v>
+      </c>
+      <c r="AK363">
+        <v>1</v>
+      </c>
+      <c r="AM363">
+        <v>-1380</v>
+      </c>
+      <c r="AN363">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="364" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A364">
         <v>358</v>
       </c>
@@ -39103,8 +42596,29 @@
       <c r="AF364">
         <v>1</v>
       </c>
+      <c r="AG364">
+        <v>1</v>
+      </c>
+      <c r="AH364">
+        <v>1</v>
+      </c>
+      <c r="AI364">
+        <v>1</v>
+      </c>
+      <c r="AJ364">
+        <v>1</v>
+      </c>
+      <c r="AK364">
+        <v>2</v>
+      </c>
+      <c r="AM364">
+        <v>-340</v>
+      </c>
+      <c r="AN364">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="365" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A365">
         <v>359</v>
       </c>
@@ -39198,8 +42712,29 @@
       <c r="AF365">
         <v>1</v>
       </c>
+      <c r="AG365">
+        <v>1</v>
+      </c>
+      <c r="AH365">
+        <v>1</v>
+      </c>
+      <c r="AI365">
+        <v>1</v>
+      </c>
+      <c r="AJ365">
+        <v>1</v>
+      </c>
+      <c r="AK365">
+        <v>1</v>
+      </c>
+      <c r="AM365">
+        <v>920</v>
+      </c>
+      <c r="AN365">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="366" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A366">
         <v>360</v>
       </c>
@@ -39293,8 +42828,29 @@
       <c r="AF366">
         <v>1</v>
       </c>
+      <c r="AG366">
+        <v>1</v>
+      </c>
+      <c r="AH366">
+        <v>1</v>
+      </c>
+      <c r="AI366">
+        <v>1</v>
+      </c>
+      <c r="AJ366">
+        <v>1</v>
+      </c>
+      <c r="AK366">
+        <v>1</v>
+      </c>
+      <c r="AM366">
+        <v>8960</v>
+      </c>
+      <c r="AN366">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="367" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A367">
         <v>361</v>
       </c>
@@ -39388,8 +42944,29 @@
       <c r="AF367">
         <v>1</v>
       </c>
+      <c r="AG367">
+        <v>1</v>
+      </c>
+      <c r="AH367">
+        <v>1</v>
+      </c>
+      <c r="AI367">
+        <v>1</v>
+      </c>
+      <c r="AJ367">
+        <v>1</v>
+      </c>
+      <c r="AK367">
+        <v>1</v>
+      </c>
+      <c r="AM367">
+        <v>8960</v>
+      </c>
+      <c r="AN367">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="368" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A368">
         <v>362</v>
       </c>
@@ -39484,8 +43061,30 @@
       <c r="AF368">
         <v>2</v>
       </c>
+      <c r="AG368">
+        <v>1</v>
+      </c>
+      <c r="AH368">
+        <v>1</v>
+      </c>
+      <c r="AI368">
+        <v>1</v>
+      </c>
+      <c r="AJ368">
+        <v>1</v>
+      </c>
+      <c r="AK368">
+        <v>1</v>
+      </c>
+      <c r="AL368" s="2"/>
+      <c r="AM368">
+        <v>8960</v>
+      </c>
+      <c r="AN368">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="369" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A369">
         <v>363</v>
       </c>
@@ -39579,8 +43178,29 @@
       <c r="AF369">
         <v>1</v>
       </c>
+      <c r="AG369">
+        <v>1</v>
+      </c>
+      <c r="AH369">
+        <v>1</v>
+      </c>
+      <c r="AI369">
+        <v>1</v>
+      </c>
+      <c r="AJ369">
+        <v>1</v>
+      </c>
+      <c r="AK369">
+        <v>1</v>
+      </c>
+      <c r="AM369">
+        <v>-40</v>
+      </c>
+      <c r="AN369">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="370" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A370">
         <v>364</v>
       </c>
@@ -39674,8 +43294,29 @@
       <c r="AF370">
         <v>1</v>
       </c>
+      <c r="AG370">
+        <v>1</v>
+      </c>
+      <c r="AH370">
+        <v>1</v>
+      </c>
+      <c r="AI370">
+        <v>1</v>
+      </c>
+      <c r="AJ370">
+        <v>1</v>
+      </c>
+      <c r="AK370">
+        <v>1</v>
+      </c>
+      <c r="AM370">
+        <v>-1080</v>
+      </c>
+      <c r="AN370">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="371" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A371">
         <v>365</v>
       </c>
@@ -39769,8 +43410,29 @@
       <c r="AF371">
         <v>2</v>
       </c>
+      <c r="AG371">
+        <v>1</v>
+      </c>
+      <c r="AH371">
+        <v>1</v>
+      </c>
+      <c r="AI371">
+        <v>1</v>
+      </c>
+      <c r="AJ371">
+        <v>1</v>
+      </c>
+      <c r="AK371">
+        <v>1</v>
+      </c>
+      <c r="AM371">
+        <v>-1080</v>
+      </c>
+      <c r="AN371">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="372" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A372">
         <v>366</v>
       </c>
@@ -39864,8 +43526,29 @@
       <c r="AF372">
         <v>2</v>
       </c>
+      <c r="AG372">
+        <v>1</v>
+      </c>
+      <c r="AH372">
+        <v>1</v>
+      </c>
+      <c r="AI372">
+        <v>1</v>
+      </c>
+      <c r="AJ372">
+        <v>1</v>
+      </c>
+      <c r="AK372">
+        <v>1</v>
+      </c>
+      <c r="AM372">
+        <v>-40</v>
+      </c>
+      <c r="AN372">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="373" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A373">
         <v>367</v>
       </c>
@@ -39959,8 +43642,29 @@
       <c r="AF373">
         <v>1</v>
       </c>
+      <c r="AG373">
+        <v>1</v>
+      </c>
+      <c r="AH373">
+        <v>1</v>
+      </c>
+      <c r="AI373">
+        <v>1</v>
+      </c>
+      <c r="AJ373">
+        <v>1</v>
+      </c>
+      <c r="AK373">
+        <v>1</v>
+      </c>
+      <c r="AM373">
+        <v>-40</v>
+      </c>
+      <c r="AN373">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="374" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A374">
         <v>368</v>
       </c>
@@ -40054,8 +43758,29 @@
       <c r="AF374">
         <v>1</v>
       </c>
+      <c r="AG374">
+        <v>2</v>
+      </c>
+      <c r="AH374">
+        <v>1</v>
+      </c>
+      <c r="AI374">
+        <v>1</v>
+      </c>
+      <c r="AJ374">
+        <v>1</v>
+      </c>
+      <c r="AK374">
+        <v>1</v>
+      </c>
+      <c r="AM374">
+        <v>8660</v>
+      </c>
+      <c r="AN374">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="375" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A375">
         <v>369</v>
       </c>
@@ -40149,8 +43874,29 @@
       <c r="AF375">
         <v>1</v>
       </c>
+      <c r="AG375">
+        <v>1</v>
+      </c>
+      <c r="AH375">
+        <v>1</v>
+      </c>
+      <c r="AI375">
+        <v>1</v>
+      </c>
+      <c r="AJ375">
+        <v>1</v>
+      </c>
+      <c r="AK375">
+        <v>1</v>
+      </c>
+      <c r="AM375">
+        <v>1960</v>
+      </c>
+      <c r="AN375">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="376" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A376">
         <v>370</v>
       </c>
@@ -40244,8 +43990,29 @@
       <c r="AF376">
         <v>2</v>
       </c>
+      <c r="AG376">
+        <v>1</v>
+      </c>
+      <c r="AH376">
+        <v>1</v>
+      </c>
+      <c r="AI376">
+        <v>1</v>
+      </c>
+      <c r="AJ376">
+        <v>1</v>
+      </c>
+      <c r="AK376">
+        <v>1</v>
+      </c>
+      <c r="AM376">
+        <v>7920</v>
+      </c>
+      <c r="AN376">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="377" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A377">
         <v>371</v>
       </c>
@@ -40339,8 +44106,29 @@
       <c r="AF377">
         <v>2</v>
       </c>
+      <c r="AG377">
+        <v>1</v>
+      </c>
+      <c r="AH377">
+        <v>1</v>
+      </c>
+      <c r="AI377">
+        <v>1</v>
+      </c>
+      <c r="AJ377">
+        <v>1</v>
+      </c>
+      <c r="AK377">
+        <v>1</v>
+      </c>
+      <c r="AM377">
+        <v>8960</v>
+      </c>
+      <c r="AN377">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="378" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A378">
         <v>372</v>
       </c>
@@ -40434,8 +44222,29 @@
       <c r="AF378">
         <v>2</v>
       </c>
+      <c r="AG378">
+        <v>1</v>
+      </c>
+      <c r="AH378">
+        <v>1</v>
+      </c>
+      <c r="AI378">
+        <v>1</v>
+      </c>
+      <c r="AJ378">
+        <v>1</v>
+      </c>
+      <c r="AK378">
+        <v>1</v>
+      </c>
+      <c r="AM378">
+        <v>7920</v>
+      </c>
+      <c r="AN378">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="379" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A379">
         <v>373</v>
       </c>
@@ -40529,8 +44338,29 @@
       <c r="AF379">
         <v>2</v>
       </c>
+      <c r="AG379">
+        <v>1</v>
+      </c>
+      <c r="AH379">
+        <v>1</v>
+      </c>
+      <c r="AI379">
+        <v>1</v>
+      </c>
+      <c r="AJ379">
+        <v>1</v>
+      </c>
+      <c r="AK379">
+        <v>1</v>
+      </c>
+      <c r="AM379">
+        <v>-40</v>
+      </c>
+      <c r="AN379">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="380" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A380">
         <v>374</v>
       </c>
@@ -40624,8 +44454,29 @@
       <c r="AF380">
         <v>2</v>
       </c>
+      <c r="AG380">
+        <v>1</v>
+      </c>
+      <c r="AH380">
+        <v>1</v>
+      </c>
+      <c r="AI380">
+        <v>1</v>
+      </c>
+      <c r="AJ380">
+        <v>1</v>
+      </c>
+      <c r="AK380">
+        <v>1</v>
+      </c>
+      <c r="AM380">
+        <v>8960</v>
+      </c>
+      <c r="AN380">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="381" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A381">
         <v>375</v>
       </c>
@@ -40719,8 +44570,29 @@
       <c r="AF381">
         <v>1</v>
       </c>
+      <c r="AG381">
+        <v>1</v>
+      </c>
+      <c r="AH381">
+        <v>2</v>
+      </c>
+      <c r="AI381">
+        <v>1</v>
+      </c>
+      <c r="AJ381">
+        <v>1</v>
+      </c>
+      <c r="AK381">
+        <v>1</v>
+      </c>
+      <c r="AM381">
+        <v>620</v>
+      </c>
+      <c r="AN381">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="382" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A382">
         <v>376</v>
       </c>
@@ -40814,8 +44686,29 @@
       <c r="AF382">
         <v>1</v>
       </c>
+      <c r="AG382">
+        <v>1</v>
+      </c>
+      <c r="AH382">
+        <v>1</v>
+      </c>
+      <c r="AI382">
+        <v>1</v>
+      </c>
+      <c r="AJ382">
+        <v>1</v>
+      </c>
+      <c r="AK382">
+        <v>1</v>
+      </c>
+      <c r="AM382">
+        <v>920</v>
+      </c>
+      <c r="AN382">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="383" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A383">
         <v>377</v>
       </c>
@@ -40909,8 +44802,29 @@
       <c r="AF383">
         <v>2</v>
       </c>
+      <c r="AG383">
+        <v>1</v>
+      </c>
+      <c r="AH383">
+        <v>1</v>
+      </c>
+      <c r="AI383">
+        <v>1</v>
+      </c>
+      <c r="AJ383">
+        <v>1</v>
+      </c>
+      <c r="AK383">
+        <v>1</v>
+      </c>
+      <c r="AM383">
+        <v>-1080</v>
+      </c>
+      <c r="AN383">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="384" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.75">
       <c r="A384">
         <v>378</v>
       </c>
@@ -41003,6 +44917,27 @@
       </c>
       <c r="AF384">
         <v>1</v>
+      </c>
+      <c r="AG384">
+        <v>1</v>
+      </c>
+      <c r="AH384">
+        <v>1</v>
+      </c>
+      <c r="AI384">
+        <v>1</v>
+      </c>
+      <c r="AJ384">
+        <v>1</v>
+      </c>
+      <c r="AK384">
+        <v>1</v>
+      </c>
+      <c r="AM384">
+        <v>1960</v>
+      </c>
+      <c r="AN384">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
